--- a/feuille_consolid.xlsx
+++ b/feuille_consolid.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Date </t>
   </si>
@@ -23,6 +23,9 @@
   </si>
   <si>
     <t>ACHATS</t>
+  </si>
+  <si>
+    <t>A distribuer</t>
   </si>
 </sst>
 </file>
@@ -384,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,12 +406,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45037</v>
+        <v>25569.00000000052</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45038</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B3">
         <v>686500</v>
@@ -419,7 +422,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45039</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B4">
         <v>492200</v>
@@ -430,7 +433,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45040</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B5">
         <v>139500</v>
@@ -441,7 +444,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45041</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B6">
         <v>157000</v>
@@ -452,7 +455,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45042</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B7">
         <v>590500</v>
@@ -463,7 +466,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45043</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B8">
         <v>164500</v>
@@ -474,7 +477,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45044</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B9">
         <v>289500</v>
@@ -485,7 +488,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45045</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B10">
         <v>564600</v>
@@ -496,7 +499,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45046</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B11">
         <v>443000</v>
@@ -507,7 +510,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45047</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B12">
         <v>300500</v>
@@ -518,7 +521,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45048</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B13">
         <v>136000</v>
@@ -529,7 +532,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45049</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B14">
         <v>211500</v>
@@ -540,7 +543,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45050</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B15">
         <v>267500</v>
@@ -551,7 +554,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45051</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B16">
         <v>399800</v>
@@ -562,7 +565,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45052</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B17">
         <v>381600</v>
@@ -573,7 +576,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45053</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B18">
         <v>249500</v>
@@ -584,7 +587,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45054</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B19">
         <v>95000</v>
@@ -595,7 +598,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45055</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B20">
         <v>156000</v>
@@ -606,7 +609,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45056</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B21">
         <v>440500</v>
@@ -617,7 +620,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45057</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B22">
         <v>150400</v>
@@ -628,7 +631,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45058</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B23">
         <v>752500</v>
@@ -639,7 +642,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45059</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B24">
         <v>771000</v>
@@ -650,7 +653,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45060</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B25">
         <v>845500</v>
@@ -661,7 +664,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45061</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B26">
         <v>638500</v>
@@ -672,7 +675,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45062</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B27">
         <v>273000</v>
@@ -683,7 +686,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45063</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B28">
         <v>931000</v>
@@ -694,7 +697,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45064</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B29">
         <v>419000</v>
@@ -705,7 +708,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45065</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B30">
         <v>375000</v>
@@ -716,7 +719,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45066</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B31">
         <v>745250</v>
@@ -727,7 +730,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45067</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B32">
         <v>276500</v>
@@ -738,7 +741,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45068</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B33">
         <v>214150</v>
@@ -749,7 +752,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45069</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B34">
         <v>446500</v>
@@ -760,7 +763,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45070</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B35">
         <v>186600</v>
@@ -771,7 +774,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45071</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B36">
         <v>245500</v>
@@ -782,7 +785,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45072</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B37">
         <v>302000</v>
@@ -793,7 +796,7 @@
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45073</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B38">
         <v>481500</v>
@@ -804,7 +807,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45074</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B39">
         <v>615250</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45075</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B40">
         <v>214500</v>
@@ -826,7 +829,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45076</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B41">
         <v>209250</v>
@@ -837,7 +840,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45077</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B42">
         <v>494250</v>
@@ -848,7 +851,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45078</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B43">
         <v>353000</v>
@@ -859,7 +862,7 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>45079</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B44">
         <v>504250</v>
@@ -870,7 +873,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>45080</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B45">
         <v>549500</v>
@@ -881,7 +884,7 @@
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>45081</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B46">
         <v>214500</v>
@@ -892,7 +895,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>45082</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B47">
         <v>162500</v>
@@ -903,7 +906,7 @@
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>45083</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B48">
         <v>311750</v>
@@ -914,7 +917,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>45084</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B49">
         <v>520000</v>
@@ -925,7 +928,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>45085</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B50">
         <v>437250</v>
@@ -936,7 +939,7 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>45086</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B51">
         <v>1019500</v>
@@ -947,7 +950,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>45087</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B52">
         <v>1153500</v>
@@ -958,7 +961,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>45088</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B53">
         <v>942250</v>
@@ -969,7 +972,7 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>45089</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B54">
         <v>376500</v>
@@ -980,7 +983,7 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>45090</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B55">
         <v>417000</v>
@@ -991,7 +994,7 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>45091</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B56">
         <v>997250</v>
@@ -1002,7 +1005,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>45092</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B57">
         <v>343000</v>
@@ -1013,7 +1016,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>45093</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B58">
         <v>1074250</v>
@@ -1024,7 +1027,7 @@
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>45094</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B59">
         <v>1124750</v>
@@ -1035,7 +1038,7 @@
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>45095</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B60">
         <v>392500</v>
@@ -1046,7 +1049,7 @@
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>45096</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B61">
         <v>145500</v>
@@ -1057,7 +1060,7 @@
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>45097</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B62">
         <v>852000</v>
@@ -1068,7 +1071,7 @@
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>45098</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B63">
         <v>1422250</v>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>45099</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B64">
         <v>493000</v>
@@ -1090,7 +1093,7 @@
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>45100</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B65">
         <v>654250</v>
@@ -1101,7 +1104,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>45101</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B66">
         <v>977750</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>45102</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B67">
         <v>792750</v>
@@ -1123,7 +1126,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>45103</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B68">
         <v>335500</v>
@@ -1134,7 +1137,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>45104</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B69">
         <v>653500</v>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>45105</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B70">
         <v>1170500</v>
@@ -1156,7 +1159,7 @@
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>45106</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B71">
         <v>602250</v>
@@ -1167,7 +1170,7 @@
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>45107</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B72">
         <v>1478500</v>
@@ -1178,343 +1181,492 @@
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>45108</v>
-      </c>
-      <c r="B73">
-        <v>705500</v>
-      </c>
-      <c r="C73">
-        <v>311750</v>
+        <v>25569.00000023693</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>45109</v>
-      </c>
-      <c r="B74">
-        <v>463500</v>
-      </c>
-      <c r="C74">
-        <v>1641600</v>
+        <v>25569.00000009536</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>45110</v>
-      </c>
-      <c r="B75">
-        <v>465000</v>
-      </c>
-      <c r="C75">
-        <v>255250</v>
+        <v>25569.00000014156</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>45111</v>
-      </c>
-      <c r="B76">
-        <v>355750</v>
-      </c>
-      <c r="C76">
-        <v>114550</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>45112</v>
-      </c>
-      <c r="B77">
-        <v>1286500</v>
-      </c>
-      <c r="C77">
-        <v>509900</v>
+        <v>25569.0000000228</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B78">
-        <v>566000</v>
-      </c>
-      <c r="C78">
-        <v>231200</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>45114</v>
-      </c>
-      <c r="B79">
-        <v>1675250</v>
-      </c>
-      <c r="C79">
-        <v>242025</v>
+        <v>25569.00000002282</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>45115</v>
-      </c>
-      <c r="B80">
-        <v>1010250</v>
-      </c>
-      <c r="C80">
-        <v>937650</v>
+        <v>25569.00000009594</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>45116</v>
-      </c>
-      <c r="B81">
-        <v>1693000</v>
-      </c>
-      <c r="C81">
-        <v>1763350</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>45117</v>
-      </c>
-      <c r="B82">
-        <v>394250</v>
-      </c>
-      <c r="C82">
-        <v>330150</v>
+        <v>25569.00000002009</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>45118</v>
-      </c>
-      <c r="B83">
-        <v>388250</v>
-      </c>
-      <c r="C83">
-        <v>78450</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>45119</v>
-      </c>
-      <c r="B84">
-        <v>1230500</v>
-      </c>
-      <c r="C84">
-        <v>389925</v>
+        <v>25569.00000016108</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>45120</v>
+        <v>25569.00000007284</v>
       </c>
       <c r="B85">
-        <v>1125500</v>
-      </c>
-      <c r="C85">
-        <v>454775</v>
+        <v>6168750</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>45121</v>
-      </c>
-      <c r="B86">
-        <v>1189750</v>
-      </c>
-      <c r="C86">
-        <v>435550</v>
+        <v>25569</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>45122</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B87">
-        <v>950750</v>
+        <v>705500</v>
       </c>
       <c r="C87">
-        <v>382000</v>
+        <v>311750</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>45123</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B88">
-        <v>872500</v>
+        <v>463500</v>
       </c>
       <c r="C88">
-        <v>1038250</v>
+        <v>1641600</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>45124</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B89">
-        <v>361500</v>
+        <v>465000</v>
       </c>
       <c r="C89">
-        <v>390100</v>
+        <v>255250</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>45125</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B90">
-        <v>539000</v>
+        <v>355750</v>
       </c>
       <c r="C90">
-        <v>163850</v>
+        <v>114550</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>45126</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B91">
-        <v>909000</v>
+        <v>1286500</v>
       </c>
       <c r="C91">
-        <v>971150</v>
+        <v>509900</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>45127</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B92">
-        <v>947750</v>
+        <v>566000</v>
       </c>
       <c r="C92">
-        <v>241300</v>
+        <v>231200</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>45128</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B93">
-        <v>1934000</v>
+        <v>1675250</v>
       </c>
       <c r="C93">
-        <v>383300</v>
+        <v>242025</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>45129</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B94">
-        <v>1042750</v>
+        <v>1010250</v>
       </c>
       <c r="C94">
-        <v>348750</v>
+        <v>937650</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>45130</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B95">
-        <v>1412000</v>
+        <v>1693000</v>
       </c>
       <c r="C95">
-        <v>1801025</v>
+        <v>1763350</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>45131</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B96">
-        <v>343500</v>
+        <v>394250</v>
       </c>
       <c r="C96">
-        <v>205650</v>
+        <v>330150</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>45132</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B97">
-        <v>418750</v>
+        <v>388250</v>
       </c>
       <c r="C97">
-        <v>401000</v>
+        <v>78450</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>45133</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B98">
-        <v>395000</v>
+        <v>1230500</v>
       </c>
       <c r="C98">
-        <v>295700</v>
+        <v>389925</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>45134</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B99">
-        <v>1350500</v>
+        <v>1125500</v>
       </c>
       <c r="C99">
-        <v>106100</v>
+        <v>454775</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>45135</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B100">
-        <v>1633250</v>
+        <v>1189750</v>
       </c>
       <c r="C100">
-        <v>1259800</v>
+        <v>435550</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>45136</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B101">
-        <v>1259750</v>
+        <v>950750</v>
       </c>
       <c r="C101">
-        <v>205250</v>
+        <v>382000</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>45137</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B102">
-        <v>1497000</v>
+        <v>872500</v>
       </c>
       <c r="C102">
-        <v>2014850</v>
+        <v>1038250</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>45138</v>
+        <v>25569.00000000052</v>
       </c>
       <c r="B103">
+        <v>361500</v>
+      </c>
+      <c r="C103">
+        <v>390100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B104">
+        <v>539000</v>
+      </c>
+      <c r="C104">
+        <v>163850</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B105">
+        <v>909000</v>
+      </c>
+      <c r="C105">
+        <v>971150</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B106">
+        <v>947750</v>
+      </c>
+      <c r="C106">
+        <v>241300</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B107">
+        <v>1934000</v>
+      </c>
+      <c r="C107">
+        <v>383300</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B108">
+        <v>1042750</v>
+      </c>
+      <c r="C108">
+        <v>348750</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B109">
+        <v>1412000</v>
+      </c>
+      <c r="C109">
+        <v>1801025</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B110">
+        <v>343500</v>
+      </c>
+      <c r="C110">
+        <v>205650</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B111">
+        <v>418750</v>
+      </c>
+      <c r="C111">
+        <v>401000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B112">
+        <v>395000</v>
+      </c>
+      <c r="C112">
+        <v>295700</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B113">
+        <v>1350500</v>
+      </c>
+      <c r="C113">
+        <v>106100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B114">
+        <v>1633250</v>
+      </c>
+      <c r="C114">
+        <v>1259800</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B115">
+        <v>1259750</v>
+      </c>
+      <c r="C115">
+        <v>205250</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B116">
+        <v>1497000</v>
+      </c>
+      <c r="C116">
+        <v>2014850</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>25569.00000000052</v>
+      </c>
+      <c r="B117">
         <v>405750</v>
       </c>
-      <c r="C103">
+      <c r="C117">
         <v>811050</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>25569.00000033358</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>25569.00000017657</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>25569.000000157</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>25569.00000002545</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>25569.00000001341</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>25569.00000011813</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>25569.00000002094</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>25569</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="2">
+        <v>25569.00000023639</v>
+      </c>
+      <c r="B129" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="2">
+        <v>25569.00000009719</v>
+      </c>
+      <c r="B130">
+        <v>8130800</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="2">
+        <v>25569</v>
       </c>
     </row>
   </sheetData>

--- a/feuille_consolid.xlsx
+++ b/feuille_consolid.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1517,6 +1517,347 @@
         <v>811050</v>
       </c>
     </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45139</v>
+      </c>
+      <c r="B104">
+        <v>516000</v>
+      </c>
+      <c r="C104">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45140</v>
+      </c>
+      <c r="B105">
+        <v>2514750</v>
+      </c>
+      <c r="C105">
+        <v>823500</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B106">
+        <v>1210000</v>
+      </c>
+      <c r="C106">
+        <v>408150</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45142</v>
+      </c>
+      <c r="B107">
+        <v>1610750</v>
+      </c>
+      <c r="C107">
+        <v>478000</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45143</v>
+      </c>
+      <c r="B108">
+        <v>1205750</v>
+      </c>
+      <c r="C108">
+        <v>452650</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45144</v>
+      </c>
+      <c r="B109">
+        <v>1454750</v>
+      </c>
+      <c r="C109">
+        <v>2012300</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45145</v>
+      </c>
+      <c r="B110">
+        <v>582750</v>
+      </c>
+      <c r="C110">
+        <v>435450</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45146</v>
+      </c>
+      <c r="B111">
+        <v>602500</v>
+      </c>
+      <c r="C111">
+        <v>123900</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45147</v>
+      </c>
+      <c r="B112">
+        <v>2105750</v>
+      </c>
+      <c r="C112">
+        <v>764500</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45148</v>
+      </c>
+      <c r="B113">
+        <v>1129500</v>
+      </c>
+      <c r="C113">
+        <v>1068450</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45149</v>
+      </c>
+      <c r="B114">
+        <v>1368250</v>
+      </c>
+      <c r="C114">
+        <v>556600</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45150</v>
+      </c>
+      <c r="B115">
+        <v>2536500</v>
+      </c>
+      <c r="C115">
+        <v>433100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45151</v>
+      </c>
+      <c r="B116">
+        <v>1090500</v>
+      </c>
+      <c r="C116">
+        <v>2517275</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45152</v>
+      </c>
+      <c r="B117">
+        <v>1984500</v>
+      </c>
+      <c r="C117">
+        <v>246775</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45153</v>
+      </c>
+      <c r="B118">
+        <v>457250</v>
+      </c>
+      <c r="C118">
+        <v>42800</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45154</v>
+      </c>
+      <c r="B119">
+        <v>2845600</v>
+      </c>
+      <c r="C119">
+        <v>1334150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45155</v>
+      </c>
+      <c r="B120">
+        <v>1144500</v>
+      </c>
+      <c r="C120">
+        <v>704300</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45156</v>
+      </c>
+      <c r="B121">
+        <v>1302500</v>
+      </c>
+      <c r="C121">
+        <v>184700</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45157</v>
+      </c>
+      <c r="B122">
+        <v>1354500</v>
+      </c>
+      <c r="C122">
+        <v>118050</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B123">
+        <v>34500</v>
+      </c>
+      <c r="C123">
+        <v>2252525</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B124">
+        <v>663500</v>
+      </c>
+      <c r="C124">
+        <v>1095000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B125">
+        <v>588500</v>
+      </c>
+      <c r="C125">
+        <v>265400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B126">
+        <v>2563250</v>
+      </c>
+      <c r="C126">
+        <v>1081100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B127">
+        <v>1214000</v>
+      </c>
+      <c r="C127">
+        <v>374250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B128">
+        <v>1177750</v>
+      </c>
+      <c r="C128">
+        <v>218900</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B129">
+        <v>1987250</v>
+      </c>
+      <c r="C129">
+        <v>780025</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B130">
+        <v>1166750</v>
+      </c>
+      <c r="C130">
+        <v>1892300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B131">
+        <v>1240750</v>
+      </c>
+      <c r="C131">
+        <v>607000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B132">
+        <v>787500</v>
+      </c>
+      <c r="C132">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B133">
+        <v>2303250</v>
+      </c>
+      <c r="C133">
+        <v>1691750</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B134">
+        <v>950500</v>
+      </c>
+      <c r="C134">
+        <v>427450</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/feuille_consolid.xlsx
+++ b/feuille_consolid.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C134"/>
+  <dimension ref="A1:C154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,1459 +403,1679 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45037</v>
+        <v>45047</v>
+      </c>
+      <c r="B2">
+        <v>300500</v>
+      </c>
+      <c r="C2">
+        <v>584400</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45038</v>
+        <v>45048</v>
       </c>
       <c r="B3">
-        <v>686500</v>
+        <v>136000</v>
       </c>
       <c r="C3">
-        <v>151210</v>
+        <v>130500</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45039</v>
+        <v>45049</v>
       </c>
       <c r="B4">
-        <v>492200</v>
+        <v>211500</v>
       </c>
       <c r="C4">
-        <v>89405</v>
+        <v>78650</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45040</v>
+        <v>45050</v>
       </c>
       <c r="B5">
-        <v>139500</v>
+        <v>267500</v>
       </c>
       <c r="C5">
-        <v>165500</v>
+        <v>218750</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45041</v>
+        <v>45051</v>
       </c>
       <c r="B6">
-        <v>157000</v>
+        <v>399800</v>
       </c>
       <c r="C6">
-        <v>174000</v>
+        <v>230300</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45042</v>
+        <v>45052</v>
       </c>
       <c r="B7">
-        <v>590500</v>
+        <v>381600</v>
       </c>
       <c r="C7">
-        <v>176325</v>
+        <v>91500</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45043</v>
+        <v>45053</v>
       </c>
       <c r="B8">
+        <v>249500</v>
+      </c>
+      <c r="C8">
         <v>164500</v>
-      </c>
-      <c r="C8">
-        <v>113700</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45044</v>
+        <v>45054</v>
       </c>
       <c r="B9">
-        <v>289500</v>
+        <v>95000</v>
       </c>
       <c r="C9">
-        <v>347750</v>
+        <v>187150</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45045</v>
+        <v>45055</v>
       </c>
       <c r="B10">
-        <v>564600</v>
+        <v>156000</v>
       </c>
       <c r="C10">
-        <v>119000</v>
+        <v>335327.39623</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45046</v>
+        <v>45056</v>
       </c>
       <c r="B11">
-        <v>443000</v>
+        <v>440500</v>
       </c>
       <c r="C11">
-        <v>2007660</v>
+        <v>133200</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45047</v>
+        <v>45057</v>
       </c>
       <c r="B12">
-        <v>300500</v>
+        <v>150400</v>
       </c>
       <c r="C12">
-        <v>584400</v>
+        <v>296300</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45048</v>
+        <v>45058</v>
       </c>
       <c r="B13">
-        <v>136000</v>
+        <v>752500</v>
       </c>
       <c r="C13">
-        <v>130500</v>
+        <v>100150</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45049</v>
+        <v>45059</v>
       </c>
       <c r="B14">
-        <v>211500</v>
+        <v>771000</v>
       </c>
       <c r="C14">
-        <v>78650</v>
+        <v>154750</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45050</v>
+        <v>45060</v>
       </c>
       <c r="B15">
-        <v>267500</v>
+        <v>845500</v>
       </c>
       <c r="C15">
-        <v>218750</v>
+        <v>166750</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45051</v>
+        <v>45061</v>
       </c>
       <c r="B16">
-        <v>399800</v>
+        <v>638500</v>
       </c>
       <c r="C16">
-        <v>230300</v>
+        <v>1359175</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45052</v>
+        <v>45062</v>
       </c>
       <c r="B17">
-        <v>381600</v>
+        <v>273000</v>
       </c>
       <c r="C17">
-        <v>91500</v>
+        <v>313250</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45053</v>
+        <v>45063</v>
       </c>
       <c r="B18">
-        <v>249500</v>
+        <v>931000</v>
       </c>
       <c r="C18">
-        <v>164500</v>
+        <v>406525</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45054</v>
+        <v>45064</v>
       </c>
       <c r="B19">
-        <v>95000</v>
+        <v>419000</v>
       </c>
       <c r="C19">
-        <v>187150</v>
+        <v>187950</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45055</v>
+        <v>45065</v>
       </c>
       <c r="B20">
-        <v>156000</v>
+        <v>375000</v>
       </c>
       <c r="C20">
-        <v>335327.39623</v>
+        <v>360050</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45056</v>
+        <v>45066</v>
       </c>
       <c r="B21">
-        <v>440500</v>
+        <v>745250</v>
       </c>
       <c r="C21">
-        <v>133200</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45057</v>
+        <v>45067</v>
       </c>
       <c r="B22">
-        <v>150400</v>
+        <v>276500</v>
       </c>
       <c r="C22">
-        <v>296300</v>
+        <v>403772.26</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45058</v>
+        <v>45068</v>
       </c>
       <c r="B23">
-        <v>752500</v>
+        <v>214150</v>
       </c>
       <c r="C23">
-        <v>100150</v>
+        <v>805850</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45059</v>
+        <v>45069</v>
       </c>
       <c r="B24">
-        <v>771000</v>
+        <v>446500</v>
       </c>
       <c r="C24">
-        <v>154750</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45060</v>
+        <v>45070</v>
       </c>
       <c r="B25">
-        <v>845500</v>
+        <v>186600</v>
       </c>
       <c r="C25">
-        <v>166750</v>
+        <v>323850</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45061</v>
+        <v>45071</v>
       </c>
       <c r="B26">
-        <v>638500</v>
+        <v>245500</v>
       </c>
       <c r="C26">
-        <v>1359175</v>
+        <v>127600</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45062</v>
+        <v>45072</v>
       </c>
       <c r="B27">
-        <v>273000</v>
+        <v>302000</v>
       </c>
       <c r="C27">
-        <v>313250</v>
+        <v>122650</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45063</v>
+        <v>45073</v>
       </c>
       <c r="B28">
-        <v>931000</v>
+        <v>481500</v>
       </c>
       <c r="C28">
-        <v>406525</v>
+        <v>176750</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45064</v>
+        <v>45074</v>
       </c>
       <c r="B29">
-        <v>419000</v>
+        <v>615250</v>
       </c>
       <c r="C29">
-        <v>187950</v>
+        <v>663600</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45065</v>
+        <v>45075</v>
       </c>
       <c r="B30">
-        <v>375000</v>
+        <v>214500</v>
       </c>
       <c r="C30">
-        <v>360050</v>
+        <v>135800</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45066</v>
+        <v>45076</v>
       </c>
       <c r="B31">
-        <v>745250</v>
+        <v>209250</v>
       </c>
       <c r="C31">
-        <v>125900</v>
+        <v>111450</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45067</v>
+        <v>45077</v>
       </c>
       <c r="B32">
-        <v>276500</v>
+        <v>494250</v>
       </c>
       <c r="C32">
-        <v>403772.26</v>
+        <v>2530650</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45068</v>
+        <v>45078</v>
       </c>
       <c r="B33">
-        <v>214150</v>
+        <v>353000</v>
       </c>
       <c r="C33">
-        <v>805850</v>
+        <v>289000</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45069</v>
+        <v>45079</v>
       </c>
       <c r="B34">
-        <v>446500</v>
+        <v>504250</v>
       </c>
       <c r="C34">
-        <v>63000</v>
+        <v>43300</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45070</v>
+        <v>45080</v>
       </c>
       <c r="B35">
-        <v>186600</v>
+        <v>549500</v>
       </c>
       <c r="C35">
-        <v>323850</v>
+        <v>274550</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45071</v>
+        <v>45081</v>
       </c>
       <c r="B36">
-        <v>245500</v>
+        <v>214500</v>
       </c>
       <c r="C36">
-        <v>127600</v>
+        <v>344650</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45072</v>
+        <v>45082</v>
       </c>
       <c r="B37">
-        <v>302000</v>
+        <v>162500</v>
       </c>
       <c r="C37">
-        <v>122650</v>
+        <v>132725</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45073</v>
+        <v>45083</v>
       </c>
       <c r="B38">
-        <v>481500</v>
+        <v>311750</v>
       </c>
       <c r="C38">
-        <v>176750</v>
+        <v>212350</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45074</v>
+        <v>45084</v>
       </c>
       <c r="B39">
-        <v>615250</v>
+        <v>520000</v>
       </c>
       <c r="C39">
-        <v>663600</v>
+        <v>260850</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45075</v>
+        <v>45085</v>
       </c>
       <c r="B40">
-        <v>214500</v>
+        <v>437250</v>
       </c>
       <c r="C40">
-        <v>135800</v>
+        <v>123250</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45076</v>
+        <v>45086</v>
       </c>
       <c r="B41">
-        <v>209250</v>
+        <v>1019500</v>
       </c>
       <c r="C41">
-        <v>111450</v>
+        <v>159075</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45077</v>
+        <v>45087</v>
       </c>
       <c r="B42">
-        <v>494250</v>
+        <v>1153500</v>
       </c>
       <c r="C42">
-        <v>2530650</v>
+        <v>168050</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45078</v>
+        <v>45088</v>
       </c>
       <c r="B43">
-        <v>353000</v>
+        <v>942250</v>
       </c>
       <c r="C43">
-        <v>289000</v>
+        <v>1425850</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>45079</v>
+        <v>45089</v>
       </c>
       <c r="B44">
-        <v>504250</v>
+        <v>376500</v>
       </c>
       <c r="C44">
-        <v>43300</v>
+        <v>191225</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>45080</v>
+        <v>45090</v>
       </c>
       <c r="B45">
-        <v>549500</v>
+        <v>417000</v>
       </c>
       <c r="C45">
-        <v>274550</v>
+        <v>127000</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>45081</v>
+        <v>45091</v>
       </c>
       <c r="B46">
-        <v>214500</v>
+        <v>997250</v>
       </c>
       <c r="C46">
-        <v>344650</v>
+        <v>410925</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>45082</v>
+        <v>45092</v>
       </c>
       <c r="B47">
-        <v>162500</v>
+        <v>343000</v>
       </c>
       <c r="C47">
-        <v>132725</v>
+        <v>275925</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>45083</v>
+        <v>45093</v>
       </c>
       <c r="B48">
-        <v>311750</v>
+        <v>1074250</v>
       </c>
       <c r="C48">
-        <v>212350</v>
+        <v>180100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>45084</v>
+        <v>45094</v>
       </c>
       <c r="B49">
-        <v>520000</v>
+        <v>1124750</v>
       </c>
       <c r="C49">
-        <v>260850</v>
+        <v>628400</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>45085</v>
+        <v>45095</v>
       </c>
       <c r="B50">
-        <v>437250</v>
+        <v>392500</v>
       </c>
       <c r="C50">
-        <v>123250</v>
+        <v>1958050</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>45086</v>
+        <v>45096</v>
       </c>
       <c r="B51">
-        <v>1019500</v>
+        <v>145500</v>
       </c>
       <c r="C51">
-        <v>159075</v>
+        <v>201125</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>45087</v>
+        <v>45097</v>
       </c>
       <c r="B52">
-        <v>1153500</v>
+        <v>852000</v>
       </c>
       <c r="C52">
-        <v>168050</v>
+        <v>97300</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>45088</v>
+        <v>45098</v>
       </c>
       <c r="B53">
-        <v>942250</v>
+        <v>1422250</v>
       </c>
       <c r="C53">
-        <v>1425850</v>
+        <v>185750</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="B54">
-        <v>376500</v>
+        <v>493000</v>
       </c>
       <c r="C54">
-        <v>191225</v>
+        <v>247700</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>45090</v>
+        <v>45100</v>
       </c>
       <c r="B55">
-        <v>417000</v>
+        <v>654250</v>
       </c>
       <c r="C55">
-        <v>127000</v>
+        <v>257950</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>45091</v>
+        <v>45101</v>
       </c>
       <c r="B56">
-        <v>997250</v>
+        <v>977750</v>
       </c>
       <c r="C56">
-        <v>410925</v>
+        <v>164500</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>45092</v>
+        <v>45102</v>
       </c>
       <c r="B57">
-        <v>343000</v>
+        <v>792750</v>
       </c>
       <c r="C57">
-        <v>275925</v>
+        <v>1569500</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>45093</v>
+        <v>45103</v>
       </c>
       <c r="B58">
-        <v>1074250</v>
+        <v>335500</v>
       </c>
       <c r="C58">
-        <v>180100</v>
+        <v>261325</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>45094</v>
+        <v>45104</v>
       </c>
       <c r="B59">
-        <v>1124750</v>
+        <v>653500</v>
       </c>
       <c r="C59">
-        <v>628400</v>
+        <v>191425</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>45095</v>
+        <v>45105</v>
       </c>
       <c r="B60">
-        <v>392500</v>
+        <v>1170500</v>
       </c>
       <c r="C60">
-        <v>1958050</v>
+        <v>330450</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>45096</v>
+        <v>45106</v>
       </c>
       <c r="B61">
-        <v>145500</v>
+        <v>602250</v>
       </c>
       <c r="C61">
-        <v>201125</v>
+        <v>304300</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>45097</v>
+        <v>45107</v>
       </c>
       <c r="B62">
-        <v>852000</v>
+        <v>1478500</v>
       </c>
       <c r="C62">
-        <v>97300</v>
+        <v>1165250</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>45098</v>
+        <v>45108</v>
       </c>
       <c r="B63">
-        <v>1422250</v>
+        <v>705500</v>
       </c>
       <c r="C63">
-        <v>185750</v>
+        <v>311750</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>45099</v>
+        <v>45109</v>
       </c>
       <c r="B64">
-        <v>493000</v>
+        <v>463500</v>
       </c>
       <c r="C64">
-        <v>247700</v>
+        <v>1641600</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>45100</v>
+        <v>45110</v>
       </c>
       <c r="B65">
-        <v>654250</v>
+        <v>465000</v>
       </c>
       <c r="C65">
-        <v>257950</v>
+        <v>255250</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>45101</v>
+        <v>45111</v>
       </c>
       <c r="B66">
-        <v>977750</v>
+        <v>355750</v>
       </c>
       <c r="C66">
-        <v>164500</v>
+        <v>114550</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>45102</v>
+        <v>45112</v>
       </c>
       <c r="B67">
-        <v>792750</v>
+        <v>1286500</v>
       </c>
       <c r="C67">
-        <v>1569500</v>
+        <v>509900</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>45103</v>
+        <v>45113</v>
       </c>
       <c r="B68">
-        <v>335500</v>
+        <v>566000</v>
       </c>
       <c r="C68">
-        <v>261325</v>
+        <v>231200</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>45104</v>
+        <v>45114</v>
       </c>
       <c r="B69">
-        <v>653500</v>
+        <v>1675250</v>
       </c>
       <c r="C69">
-        <v>191425</v>
+        <v>242025</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>45105</v>
+        <v>45115</v>
       </c>
       <c r="B70">
-        <v>1170500</v>
+        <v>1010250</v>
       </c>
       <c r="C70">
-        <v>330450</v>
+        <v>937650</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>45106</v>
+        <v>45116</v>
       </c>
       <c r="B71">
-        <v>602250</v>
+        <v>1693000</v>
       </c>
       <c r="C71">
-        <v>304300</v>
+        <v>1763350</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>45107</v>
+        <v>45117</v>
       </c>
       <c r="B72">
-        <v>1478500</v>
+        <v>394250</v>
       </c>
       <c r="C72">
-        <v>1165250</v>
+        <v>330150</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>45108</v>
+        <v>45118</v>
       </c>
       <c r="B73">
-        <v>705500</v>
+        <v>388250</v>
       </c>
       <c r="C73">
-        <v>311750</v>
+        <v>78450</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>45109</v>
+        <v>45119</v>
       </c>
       <c r="B74">
-        <v>463500</v>
+        <v>1230500</v>
       </c>
       <c r="C74">
-        <v>1641600</v>
+        <v>389925</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>45110</v>
+        <v>45120</v>
       </c>
       <c r="B75">
-        <v>465000</v>
+        <v>1125500</v>
       </c>
       <c r="C75">
-        <v>255250</v>
+        <v>454775</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>45111</v>
+        <v>45121</v>
       </c>
       <c r="B76">
-        <v>355750</v>
+        <v>1189750</v>
       </c>
       <c r="C76">
-        <v>114550</v>
+        <v>435550</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>45112</v>
+        <v>45122</v>
       </c>
       <c r="B77">
-        <v>1286500</v>
+        <v>950750</v>
       </c>
       <c r="C77">
-        <v>509900</v>
+        <v>382000</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>45113</v>
+        <v>45123</v>
       </c>
       <c r="B78">
-        <v>566000</v>
+        <v>872500</v>
       </c>
       <c r="C78">
-        <v>231200</v>
+        <v>1038250</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>45114</v>
+        <v>45124</v>
       </c>
       <c r="B79">
-        <v>1675250</v>
+        <v>361500</v>
       </c>
       <c r="C79">
-        <v>242025</v>
+        <v>390100</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>45115</v>
+        <v>45125</v>
       </c>
       <c r="B80">
-        <v>1010250</v>
+        <v>539000</v>
       </c>
       <c r="C80">
-        <v>937650</v>
+        <v>163850</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>45116</v>
+        <v>45126</v>
       </c>
       <c r="B81">
-        <v>1693000</v>
+        <v>909000</v>
       </c>
       <c r="C81">
-        <v>1763350</v>
+        <v>971150</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>45117</v>
+        <v>45127</v>
       </c>
       <c r="B82">
-        <v>394250</v>
+        <v>947750</v>
       </c>
       <c r="C82">
-        <v>330150</v>
+        <v>241300</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>45118</v>
+        <v>45128</v>
       </c>
       <c r="B83">
-        <v>388250</v>
+        <v>1934000</v>
       </c>
       <c r="C83">
-        <v>78450</v>
+        <v>383300</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>45119</v>
+        <v>45129</v>
       </c>
       <c r="B84">
-        <v>1230500</v>
+        <v>1042750</v>
       </c>
       <c r="C84">
-        <v>389925</v>
+        <v>348750</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>45120</v>
+        <v>45130</v>
       </c>
       <c r="B85">
-        <v>1125500</v>
+        <v>1412000</v>
       </c>
       <c r="C85">
-        <v>454775</v>
+        <v>1801025</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>45121</v>
+        <v>45131</v>
       </c>
       <c r="B86">
-        <v>1189750</v>
+        <v>343500</v>
       </c>
       <c r="C86">
-        <v>435550</v>
+        <v>205650</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>45122</v>
+        <v>45132</v>
       </c>
       <c r="B87">
-        <v>950750</v>
+        <v>418750</v>
       </c>
       <c r="C87">
-        <v>382000</v>
+        <v>401000</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>45123</v>
+        <v>45133</v>
       </c>
       <c r="B88">
-        <v>872500</v>
+        <v>395000</v>
       </c>
       <c r="C88">
-        <v>1038250</v>
+        <v>295700</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>45124</v>
+        <v>45134</v>
       </c>
       <c r="B89">
-        <v>361500</v>
+        <v>1350500</v>
       </c>
       <c r="C89">
-        <v>390100</v>
+        <v>106100</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>45125</v>
+        <v>45135</v>
       </c>
       <c r="B90">
-        <v>539000</v>
+        <v>1633250</v>
       </c>
       <c r="C90">
-        <v>163850</v>
+        <v>1259800</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>45126</v>
+        <v>45136</v>
       </c>
       <c r="B91">
-        <v>909000</v>
+        <v>1259750</v>
       </c>
       <c r="C91">
-        <v>971150</v>
+        <v>205250</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>45127</v>
+        <v>45137</v>
       </c>
       <c r="B92">
-        <v>947750</v>
+        <v>1497000</v>
       </c>
       <c r="C92">
-        <v>241300</v>
+        <v>2014850</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>45128</v>
+        <v>45138</v>
       </c>
       <c r="B93">
-        <v>1934000</v>
+        <v>405750</v>
       </c>
       <c r="C93">
-        <v>383300</v>
+        <v>811050</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>45129</v>
+        <v>45139</v>
       </c>
       <c r="B94">
-        <v>1042750</v>
+        <v>516000</v>
       </c>
       <c r="C94">
-        <v>348750</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>45130</v>
+        <v>45140</v>
       </c>
       <c r="B95">
-        <v>1412000</v>
+        <v>2514750</v>
       </c>
       <c r="C95">
-        <v>1801025</v>
+        <v>823500</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>45131</v>
+        <v>45141</v>
       </c>
       <c r="B96">
-        <v>343500</v>
+        <v>1210000</v>
       </c>
       <c r="C96">
-        <v>205650</v>
+        <v>408150</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>45132</v>
+        <v>45142</v>
       </c>
       <c r="B97">
-        <v>418750</v>
+        <v>1610750</v>
       </c>
       <c r="C97">
-        <v>401000</v>
+        <v>478000</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>45133</v>
+        <v>45143</v>
       </c>
       <c r="B98">
-        <v>395000</v>
+        <v>1205750</v>
       </c>
       <c r="C98">
-        <v>295700</v>
+        <v>452650</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>45134</v>
+        <v>45144</v>
       </c>
       <c r="B99">
-        <v>1350500</v>
+        <v>1454750</v>
       </c>
       <c r="C99">
-        <v>106100</v>
+        <v>2012300</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>45135</v>
+        <v>45145</v>
       </c>
       <c r="B100">
-        <v>1633250</v>
+        <v>582750</v>
       </c>
       <c r="C100">
-        <v>1259800</v>
+        <v>435450</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>45136</v>
+        <v>45146</v>
       </c>
       <c r="B101">
-        <v>1259750</v>
+        <v>602500</v>
       </c>
       <c r="C101">
-        <v>205250</v>
+        <v>123900</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>45137</v>
+        <v>45147</v>
       </c>
       <c r="B102">
-        <v>1497000</v>
+        <v>2105750</v>
       </c>
       <c r="C102">
-        <v>2014850</v>
+        <v>764500</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>45138</v>
+        <v>45148</v>
       </c>
       <c r="B103">
-        <v>405750</v>
+        <v>1129500</v>
       </c>
       <c r="C103">
-        <v>811050</v>
+        <v>1068450</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>45139</v>
+        <v>45149</v>
       </c>
       <c r="B104">
-        <v>516000</v>
+        <v>1368250</v>
       </c>
       <c r="C104">
-        <v>43000</v>
+        <v>556600</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>45140</v>
+        <v>45150</v>
       </c>
       <c r="B105">
-        <v>2514750</v>
+        <v>2536500</v>
       </c>
       <c r="C105">
-        <v>823500</v>
+        <v>433100</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>45141</v>
+        <v>45151</v>
       </c>
       <c r="B106">
-        <v>1210000</v>
+        <v>1090500</v>
       </c>
       <c r="C106">
-        <v>408150</v>
+        <v>2517275</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>45142</v>
+        <v>45152</v>
       </c>
       <c r="B107">
-        <v>1610750</v>
+        <v>1984500</v>
       </c>
       <c r="C107">
-        <v>478000</v>
+        <v>246775</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>45143</v>
+        <v>45153</v>
       </c>
       <c r="B108">
-        <v>1205750</v>
+        <v>457250</v>
       </c>
       <c r="C108">
-        <v>452650</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>45144</v>
+        <v>45154</v>
       </c>
       <c r="B109">
-        <v>1454750</v>
+        <v>2845600</v>
       </c>
       <c r="C109">
-        <v>2012300</v>
+        <v>1334150</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>45145</v>
+        <v>45155</v>
       </c>
       <c r="B110">
-        <v>582750</v>
+        <v>1144500</v>
       </c>
       <c r="C110">
-        <v>435450</v>
+        <v>704300</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>45146</v>
+        <v>45156</v>
       </c>
       <c r="B111">
-        <v>602500</v>
+        <v>1302500</v>
       </c>
       <c r="C111">
-        <v>123900</v>
+        <v>184700</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>45147</v>
+        <v>45157</v>
       </c>
       <c r="B112">
-        <v>2105750</v>
+        <v>1354500</v>
       </c>
       <c r="C112">
-        <v>764500</v>
+        <v>118050</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>45148</v>
+        <v>45158</v>
       </c>
       <c r="B113">
-        <v>1129500</v>
+        <v>34500</v>
       </c>
       <c r="C113">
-        <v>1068450</v>
+        <v>2252525</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>45149</v>
+        <v>45159</v>
       </c>
       <c r="B114">
-        <v>1368250</v>
+        <v>663500</v>
       </c>
       <c r="C114">
-        <v>556600</v>
+        <v>1095000</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>45150</v>
+        <v>45160</v>
       </c>
       <c r="B115">
-        <v>2536500</v>
+        <v>588500</v>
       </c>
       <c r="C115">
-        <v>433100</v>
+        <v>265400</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>45151</v>
+        <v>45161</v>
       </c>
       <c r="B116">
-        <v>1090500</v>
+        <v>2563250</v>
       </c>
       <c r="C116">
-        <v>2517275</v>
+        <v>1081100</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>45152</v>
+        <v>45162</v>
       </c>
       <c r="B117">
-        <v>1984500</v>
+        <v>1214000</v>
       </c>
       <c r="C117">
-        <v>246775</v>
+        <v>374250</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>45153</v>
+        <v>45163</v>
       </c>
       <c r="B118">
-        <v>457250</v>
+        <v>1177750</v>
       </c>
       <c r="C118">
-        <v>42800</v>
+        <v>218900</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>45154</v>
+        <v>45164</v>
       </c>
       <c r="B119">
-        <v>2845600</v>
+        <v>1987250</v>
       </c>
       <c r="C119">
-        <v>1334150</v>
+        <v>780025</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>45155</v>
+        <v>45165</v>
       </c>
       <c r="B120">
-        <v>1144500</v>
+        <v>1166750</v>
       </c>
       <c r="C120">
-        <v>704300</v>
+        <v>1892300</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>45156</v>
+        <v>45166</v>
       </c>
       <c r="B121">
-        <v>1302500</v>
+        <v>1240750</v>
       </c>
       <c r="C121">
-        <v>184700</v>
+        <v>607000</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>45157</v>
+        <v>45167</v>
       </c>
       <c r="B122">
-        <v>1354500</v>
+        <v>787500</v>
       </c>
       <c r="C122">
-        <v>118050</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>45158</v>
+        <v>45168</v>
       </c>
       <c r="B123">
-        <v>34500</v>
+        <v>2303250</v>
       </c>
       <c r="C123">
-        <v>2252525</v>
+        <v>1691750</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>45159</v>
+        <v>45169</v>
       </c>
       <c r="B124">
-        <v>663500</v>
+        <v>950500</v>
       </c>
       <c r="C124">
-        <v>1095000</v>
+        <v>427450</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>45160</v>
+        <v>45170</v>
       </c>
       <c r="B125">
-        <v>588500</v>
+        <v>1594500</v>
       </c>
       <c r="C125">
-        <v>265400</v>
+        <v>234500</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>45161</v>
+        <v>45171</v>
       </c>
       <c r="B126">
-        <v>2563250</v>
+        <v>1524750</v>
       </c>
       <c r="C126">
-        <v>1081100</v>
+        <v>245225</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>45162</v>
+        <v>45172</v>
       </c>
       <c r="B127">
-        <v>1214000</v>
+        <v>2195500</v>
       </c>
       <c r="C127">
-        <v>374250</v>
+        <v>2183725</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>45163</v>
+        <v>45173</v>
       </c>
       <c r="B128">
-        <v>1177750</v>
+        <v>822500</v>
       </c>
       <c r="C128">
-        <v>218900</v>
+        <v>1502600</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>45164</v>
+        <v>45174</v>
       </c>
       <c r="B129">
-        <v>1987250</v>
+        <v>660500</v>
       </c>
       <c r="C129">
-        <v>780025</v>
+        <v>424000</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>45165</v>
+        <v>45175</v>
       </c>
       <c r="B130">
-        <v>1166750</v>
+        <v>2406500</v>
       </c>
       <c r="C130">
-        <v>1892300</v>
+        <v>593200</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>45166</v>
+        <v>45176</v>
       </c>
       <c r="B131">
-        <v>1240750</v>
+        <v>1045500</v>
       </c>
       <c r="C131">
-        <v>607000</v>
+        <v>576400</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>45167</v>
+        <v>45177</v>
       </c>
       <c r="B132">
-        <v>787500</v>
+        <v>2174500</v>
       </c>
       <c r="C132">
-        <v>106000</v>
+        <v>223200</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>45168</v>
+        <v>45178</v>
       </c>
       <c r="B133">
-        <v>2303250</v>
+        <v>1908750</v>
       </c>
       <c r="C133">
-        <v>1691750</v>
+        <v>257600</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>45169</v>
+        <v>45179</v>
       </c>
       <c r="B134">
-        <v>950500</v>
+        <v>1258500</v>
       </c>
       <c r="C134">
-        <v>427450</v>
+        <v>2302200</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B135">
+        <v>1447000</v>
+      </c>
+      <c r="C135">
+        <v>964300</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B136">
+        <v>745000</v>
+      </c>
+      <c r="C136">
+        <v>307000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B137">
+        <v>1215000</v>
+      </c>
+      <c r="C137">
+        <v>839250</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B138">
+        <v>1850500</v>
+      </c>
+      <c r="C138">
+        <v>1066400</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B139">
+        <v>1609100</v>
+      </c>
+      <c r="C139">
+        <v>306800</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B140">
+        <v>2004000</v>
+      </c>
+      <c r="C140">
+        <v>318400</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B141">
+        <v>1225750</v>
+      </c>
+      <c r="C141">
+        <v>2522575</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B142">
+        <v>411000</v>
+      </c>
+      <c r="C142">
+        <v>953050</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B143">
+        <v>841000</v>
+      </c>
+      <c r="C143">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B144">
+        <v>1660750</v>
+      </c>
+      <c r="C144">
+        <v>572000</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B145">
+        <v>884000</v>
+      </c>
+      <c r="C145">
+        <v>673200</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B146">
+        <v>1270000</v>
+      </c>
+      <c r="C146">
+        <v>117250</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45192</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B148">
+        <v>1222000</v>
+      </c>
+      <c r="C148">
+        <v>112300</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B149">
+        <v>1755000</v>
+      </c>
+      <c r="C149">
+        <v>433075</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B150">
+        <v>645250</v>
+      </c>
+      <c r="C150">
+        <v>108500</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B151">
+        <v>2072000</v>
+      </c>
+      <c r="C151">
+        <v>322400</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B152">
+        <v>1455750</v>
+      </c>
+      <c r="C152">
+        <v>278025</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B153">
+        <v>1482250</v>
+      </c>
+      <c r="C153">
+        <v>372775</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45199</v>
+      </c>
+      <c r="C154">
+        <v>200000</v>
       </c>
     </row>
   </sheetData>

--- a/feuille_consolid.xlsx
+++ b/feuille_consolid.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C154"/>
+  <dimension ref="A1:C123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,1678 +403,1337 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B2">
-        <v>300500</v>
+        <v>353000</v>
       </c>
       <c r="C2">
-        <v>584400</v>
+        <v>289000</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45048</v>
+        <v>45079</v>
       </c>
       <c r="B3">
-        <v>136000</v>
+        <v>504250</v>
       </c>
       <c r="C3">
-        <v>130500</v>
+        <v>43300</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45049</v>
+        <v>45080</v>
       </c>
       <c r="B4">
-        <v>211500</v>
+        <v>549500</v>
       </c>
       <c r="C4">
-        <v>78650</v>
+        <v>274550</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45050</v>
+        <v>45081</v>
       </c>
       <c r="B5">
-        <v>267500</v>
+        <v>214500</v>
       </c>
       <c r="C5">
-        <v>218750</v>
+        <v>344650</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45051</v>
+        <v>45082</v>
       </c>
       <c r="B6">
-        <v>399800</v>
+        <v>162500</v>
       </c>
       <c r="C6">
-        <v>230300</v>
+        <v>132725</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45052</v>
+        <v>45083</v>
       </c>
       <c r="B7">
-        <v>381600</v>
+        <v>311750</v>
       </c>
       <c r="C7">
-        <v>91500</v>
+        <v>212350</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45053</v>
+        <v>45084</v>
       </c>
       <c r="B8">
-        <v>249500</v>
+        <v>520000</v>
       </c>
       <c r="C8">
-        <v>164500</v>
+        <v>260850</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45054</v>
+        <v>45085</v>
       </c>
       <c r="B9">
-        <v>95000</v>
+        <v>437250</v>
       </c>
       <c r="C9">
-        <v>187150</v>
+        <v>123250</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45055</v>
+        <v>45086</v>
       </c>
       <c r="B10">
-        <v>156000</v>
+        <v>1019500</v>
       </c>
       <c r="C10">
-        <v>335327.39623</v>
+        <v>159075</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45056</v>
+        <v>45087</v>
       </c>
       <c r="B11">
-        <v>440500</v>
+        <v>1153500</v>
       </c>
       <c r="C11">
-        <v>133200</v>
+        <v>168050</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45057</v>
+        <v>45088</v>
       </c>
       <c r="B12">
-        <v>150400</v>
+        <v>942250</v>
       </c>
       <c r="C12">
-        <v>296300</v>
+        <v>1425850</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45058</v>
+        <v>45089</v>
       </c>
       <c r="B13">
-        <v>752500</v>
+        <v>376500</v>
       </c>
       <c r="C13">
-        <v>100150</v>
+        <v>191225</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45059</v>
+        <v>45090</v>
       </c>
       <c r="B14">
-        <v>771000</v>
+        <v>417000</v>
       </c>
       <c r="C14">
-        <v>154750</v>
+        <v>127000</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45060</v>
+        <v>45091</v>
       </c>
       <c r="B15">
-        <v>845500</v>
+        <v>997250</v>
       </c>
       <c r="C15">
-        <v>166750</v>
+        <v>410925</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45061</v>
+        <v>45092</v>
       </c>
       <c r="B16">
-        <v>638500</v>
+        <v>343000</v>
       </c>
       <c r="C16">
-        <v>1359175</v>
+        <v>275925</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45062</v>
+        <v>45093</v>
       </c>
       <c r="B17">
-        <v>273000</v>
+        <v>1074250</v>
       </c>
       <c r="C17">
-        <v>313250</v>
+        <v>180100</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45063</v>
+        <v>45094</v>
       </c>
       <c r="B18">
-        <v>931000</v>
+        <v>1124750</v>
       </c>
       <c r="C18">
-        <v>406525</v>
+        <v>628400</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45064</v>
+        <v>45095</v>
       </c>
       <c r="B19">
-        <v>419000</v>
+        <v>392500</v>
       </c>
       <c r="C19">
-        <v>187950</v>
+        <v>1958050</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45065</v>
+        <v>45096</v>
       </c>
       <c r="B20">
-        <v>375000</v>
+        <v>145500</v>
       </c>
       <c r="C20">
-        <v>360050</v>
+        <v>201125</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45066</v>
+        <v>45097</v>
       </c>
       <c r="B21">
-        <v>745250</v>
+        <v>852000</v>
       </c>
       <c r="C21">
-        <v>125900</v>
+        <v>97300</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45067</v>
+        <v>45098</v>
       </c>
       <c r="B22">
-        <v>276500</v>
+        <v>1422250</v>
       </c>
       <c r="C22">
-        <v>403772.26</v>
+        <v>185750</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45068</v>
+        <v>45099</v>
       </c>
       <c r="B23">
-        <v>214150</v>
+        <v>493000</v>
       </c>
       <c r="C23">
-        <v>805850</v>
+        <v>247700</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45069</v>
+        <v>45100</v>
       </c>
       <c r="B24">
-        <v>446500</v>
+        <v>654250</v>
       </c>
       <c r="C24">
-        <v>63000</v>
+        <v>257950</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45070</v>
+        <v>45101</v>
       </c>
       <c r="B25">
-        <v>186600</v>
+        <v>977750</v>
       </c>
       <c r="C25">
-        <v>323850</v>
+        <v>164500</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45071</v>
+        <v>45102</v>
       </c>
       <c r="B26">
-        <v>245500</v>
+        <v>792750</v>
       </c>
       <c r="C26">
-        <v>127600</v>
+        <v>1569500</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45072</v>
+        <v>45103</v>
       </c>
       <c r="B27">
-        <v>302000</v>
+        <v>335500</v>
       </c>
       <c r="C27">
-        <v>122650</v>
+        <v>261325</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45073</v>
+        <v>45104</v>
       </c>
       <c r="B28">
-        <v>481500</v>
+        <v>653500</v>
       </c>
       <c r="C28">
-        <v>176750</v>
+        <v>191425</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45074</v>
+        <v>45105</v>
       </c>
       <c r="B29">
-        <v>615250</v>
+        <v>1170500</v>
       </c>
       <c r="C29">
-        <v>663600</v>
+        <v>330450</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45075</v>
+        <v>45106</v>
       </c>
       <c r="B30">
-        <v>214500</v>
+        <v>602250</v>
       </c>
       <c r="C30">
-        <v>135800</v>
+        <v>304300</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45076</v>
+        <v>45107</v>
       </c>
       <c r="B31">
-        <v>209250</v>
+        <v>1478500</v>
       </c>
       <c r="C31">
-        <v>111450</v>
+        <v>1165250</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45077</v>
+        <v>45108</v>
       </c>
       <c r="B32">
-        <v>494250</v>
+        <v>705500</v>
       </c>
       <c r="C32">
-        <v>2530650</v>
+        <v>311750</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45078</v>
+        <v>45109</v>
       </c>
       <c r="B33">
-        <v>353000</v>
+        <v>463500</v>
       </c>
       <c r="C33">
-        <v>289000</v>
+        <v>1641600</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45079</v>
+        <v>45110</v>
       </c>
       <c r="B34">
-        <v>504250</v>
+        <v>465000</v>
       </c>
       <c r="C34">
-        <v>43300</v>
+        <v>255250</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45080</v>
+        <v>45111</v>
       </c>
       <c r="B35">
-        <v>549500</v>
+        <v>355750</v>
       </c>
       <c r="C35">
-        <v>274550</v>
+        <v>114550</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45081</v>
+        <v>45112</v>
       </c>
       <c r="B36">
-        <v>214500</v>
+        <v>1286500</v>
       </c>
       <c r="C36">
-        <v>344650</v>
+        <v>509900</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45082</v>
+        <v>45113</v>
       </c>
       <c r="B37">
-        <v>162500</v>
+        <v>566000</v>
       </c>
       <c r="C37">
-        <v>132725</v>
+        <v>231200</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45083</v>
+        <v>45114</v>
       </c>
       <c r="B38">
-        <v>311750</v>
+        <v>1675250</v>
       </c>
       <c r="C38">
-        <v>212350</v>
+        <v>242025</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45084</v>
+        <v>45115</v>
       </c>
       <c r="B39">
-        <v>520000</v>
+        <v>1010250</v>
       </c>
       <c r="C39">
-        <v>260850</v>
+        <v>937650</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45085</v>
+        <v>45116</v>
       </c>
       <c r="B40">
-        <v>437250</v>
+        <v>1693000</v>
       </c>
       <c r="C40">
-        <v>123250</v>
+        <v>1763350</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45086</v>
+        <v>45117</v>
       </c>
       <c r="B41">
-        <v>1019500</v>
+        <v>394250</v>
       </c>
       <c r="C41">
-        <v>159075</v>
+        <v>330150</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45087</v>
+        <v>45118</v>
       </c>
       <c r="B42">
-        <v>1153500</v>
+        <v>388250</v>
       </c>
       <c r="C42">
-        <v>168050</v>
+        <v>78450</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45088</v>
+        <v>45119</v>
       </c>
       <c r="B43">
-        <v>942250</v>
+        <v>1230500</v>
       </c>
       <c r="C43">
-        <v>1425850</v>
+        <v>389925</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>45089</v>
+        <v>45120</v>
       </c>
       <c r="B44">
-        <v>376500</v>
+        <v>1125500</v>
       </c>
       <c r="C44">
-        <v>191225</v>
+        <v>454775</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>45090</v>
+        <v>45121</v>
       </c>
       <c r="B45">
-        <v>417000</v>
+        <v>1189750</v>
       </c>
       <c r="C45">
-        <v>127000</v>
+        <v>435550</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>45091</v>
+        <v>45122</v>
       </c>
       <c r="B46">
-        <v>997250</v>
+        <v>950750</v>
       </c>
       <c r="C46">
-        <v>410925</v>
+        <v>382000</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>45092</v>
+        <v>45123</v>
       </c>
       <c r="B47">
-        <v>343000</v>
+        <v>872500</v>
       </c>
       <c r="C47">
-        <v>275925</v>
+        <v>1038250</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>45093</v>
+        <v>45124</v>
       </c>
       <c r="B48">
-        <v>1074250</v>
+        <v>361500</v>
       </c>
       <c r="C48">
-        <v>180100</v>
+        <v>390100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>45094</v>
+        <v>45125</v>
       </c>
       <c r="B49">
-        <v>1124750</v>
+        <v>539000</v>
       </c>
       <c r="C49">
-        <v>628400</v>
+        <v>163850</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>45095</v>
+        <v>45126</v>
       </c>
       <c r="B50">
-        <v>392500</v>
+        <v>909000</v>
       </c>
       <c r="C50">
-        <v>1958050</v>
+        <v>971150</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>45096</v>
+        <v>45127</v>
       </c>
       <c r="B51">
-        <v>145500</v>
+        <v>947750</v>
       </c>
       <c r="C51">
-        <v>201125</v>
+        <v>241300</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>45097</v>
+        <v>45128</v>
       </c>
       <c r="B52">
-        <v>852000</v>
+        <v>1934000</v>
       </c>
       <c r="C52">
-        <v>97300</v>
+        <v>383300</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>45098</v>
+        <v>45129</v>
       </c>
       <c r="B53">
-        <v>1422250</v>
+        <v>1042750</v>
       </c>
       <c r="C53">
-        <v>185750</v>
+        <v>348750</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>45099</v>
+        <v>45130</v>
       </c>
       <c r="B54">
-        <v>493000</v>
+        <v>1412000</v>
       </c>
       <c r="C54">
-        <v>247700</v>
+        <v>1801025</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>45100</v>
+        <v>45131</v>
       </c>
       <c r="B55">
-        <v>654250</v>
+        <v>343500</v>
       </c>
       <c r="C55">
-        <v>257950</v>
+        <v>205650</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>45101</v>
+        <v>45132</v>
       </c>
       <c r="B56">
-        <v>977750</v>
+        <v>418750</v>
       </c>
       <c r="C56">
-        <v>164500</v>
+        <v>401000</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>45102</v>
+        <v>45133</v>
       </c>
       <c r="B57">
-        <v>792750</v>
+        <v>395000</v>
       </c>
       <c r="C57">
-        <v>1569500</v>
+        <v>295700</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>45103</v>
+        <v>45134</v>
       </c>
       <c r="B58">
-        <v>335500</v>
+        <v>1350500</v>
       </c>
       <c r="C58">
-        <v>261325</v>
+        <v>106100</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>45104</v>
+        <v>45135</v>
       </c>
       <c r="B59">
-        <v>653500</v>
+        <v>1633250</v>
       </c>
       <c r="C59">
-        <v>191425</v>
+        <v>1259800</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>45105</v>
+        <v>45136</v>
       </c>
       <c r="B60">
-        <v>1170500</v>
+        <v>1259750</v>
       </c>
       <c r="C60">
-        <v>330450</v>
+        <v>205250</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>45106</v>
+        <v>45137</v>
       </c>
       <c r="B61">
-        <v>602250</v>
+        <v>1497000</v>
       </c>
       <c r="C61">
-        <v>304300</v>
+        <v>2014850</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>45107</v>
+        <v>45138</v>
       </c>
       <c r="B62">
-        <v>1478500</v>
+        <v>405750</v>
       </c>
       <c r="C62">
-        <v>1165250</v>
+        <v>811050</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B63">
-        <v>705500</v>
+        <v>516000</v>
       </c>
       <c r="C63">
-        <v>311750</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>45109</v>
+        <v>45140</v>
       </c>
       <c r="B64">
-        <v>463500</v>
+        <v>2514750</v>
       </c>
       <c r="C64">
-        <v>1641600</v>
+        <v>823500</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>45110</v>
+        <v>45141</v>
       </c>
       <c r="B65">
-        <v>465000</v>
+        <v>1210000</v>
       </c>
       <c r="C65">
-        <v>255250</v>
+        <v>408150</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>45111</v>
+        <v>45142</v>
       </c>
       <c r="B66">
-        <v>355750</v>
+        <v>1610750</v>
       </c>
       <c r="C66">
-        <v>114550</v>
+        <v>478000</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>45112</v>
+        <v>45143</v>
       </c>
       <c r="B67">
-        <v>1286500</v>
+        <v>1205750</v>
       </c>
       <c r="C67">
-        <v>509900</v>
+        <v>452650</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>45113</v>
+        <v>45144</v>
       </c>
       <c r="B68">
-        <v>566000</v>
+        <v>1454750</v>
       </c>
       <c r="C68">
-        <v>231200</v>
+        <v>2012300</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>45114</v>
+        <v>45145</v>
       </c>
       <c r="B69">
-        <v>1675250</v>
+        <v>582750</v>
       </c>
       <c r="C69">
-        <v>242025</v>
+        <v>435450</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>45115</v>
+        <v>45146</v>
       </c>
       <c r="B70">
-        <v>1010250</v>
+        <v>602500</v>
       </c>
       <c r="C70">
-        <v>937650</v>
+        <v>123900</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>45116</v>
+        <v>45147</v>
       </c>
       <c r="B71">
-        <v>1693000</v>
+        <v>2105750</v>
       </c>
       <c r="C71">
-        <v>1763350</v>
+        <v>764500</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>45117</v>
+        <v>45148</v>
       </c>
       <c r="B72">
-        <v>394250</v>
+        <v>1129500</v>
       </c>
       <c r="C72">
-        <v>330150</v>
+        <v>1068450</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>45118</v>
+        <v>45149</v>
       </c>
       <c r="B73">
-        <v>388250</v>
+        <v>1368250</v>
       </c>
       <c r="C73">
-        <v>78450</v>
+        <v>556600</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>45119</v>
+        <v>45150</v>
       </c>
       <c r="B74">
-        <v>1230500</v>
+        <v>2536500</v>
       </c>
       <c r="C74">
-        <v>389925</v>
+        <v>433100</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>45120</v>
+        <v>45151</v>
       </c>
       <c r="B75">
-        <v>1125500</v>
+        <v>1090500</v>
       </c>
       <c r="C75">
-        <v>454775</v>
+        <v>2517275</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>45121</v>
+        <v>45152</v>
       </c>
       <c r="B76">
-        <v>1189750</v>
+        <v>1984500</v>
       </c>
       <c r="C76">
-        <v>435550</v>
+        <v>246775</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>45122</v>
+        <v>45153</v>
       </c>
       <c r="B77">
-        <v>950750</v>
+        <v>457250</v>
       </c>
       <c r="C77">
-        <v>382000</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>45123</v>
+        <v>45154</v>
       </c>
       <c r="B78">
-        <v>872500</v>
+        <v>2845600</v>
       </c>
       <c r="C78">
-        <v>1038250</v>
+        <v>1334150</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>45124</v>
+        <v>45155</v>
       </c>
       <c r="B79">
-        <v>361500</v>
+        <v>1144500</v>
       </c>
       <c r="C79">
-        <v>390100</v>
+        <v>704300</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>45125</v>
+        <v>45156</v>
       </c>
       <c r="B80">
-        <v>539000</v>
+        <v>1302500</v>
       </c>
       <c r="C80">
-        <v>163850</v>
+        <v>184700</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>45126</v>
+        <v>45157</v>
       </c>
       <c r="B81">
-        <v>909000</v>
+        <v>1354500</v>
       </c>
       <c r="C81">
-        <v>971150</v>
+        <v>118050</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>45127</v>
+        <v>45158</v>
       </c>
       <c r="B82">
-        <v>947750</v>
+        <v>34500</v>
       </c>
       <c r="C82">
-        <v>241300</v>
+        <v>2252525</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>45128</v>
+        <v>45159</v>
       </c>
       <c r="B83">
-        <v>1934000</v>
+        <v>663500</v>
       </c>
       <c r="C83">
-        <v>383300</v>
+        <v>1095000</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>45129</v>
+        <v>45160</v>
       </c>
       <c r="B84">
-        <v>1042750</v>
+        <v>588500</v>
       </c>
       <c r="C84">
-        <v>348750</v>
+        <v>265400</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>45130</v>
+        <v>45161</v>
       </c>
       <c r="B85">
-        <v>1412000</v>
+        <v>2563250</v>
       </c>
       <c r="C85">
-        <v>1801025</v>
+        <v>1081100</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>45131</v>
+        <v>45162</v>
       </c>
       <c r="B86">
-        <v>343500</v>
+        <v>1214000</v>
       </c>
       <c r="C86">
-        <v>205650</v>
+        <v>374250</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>45132</v>
+        <v>45163</v>
       </c>
       <c r="B87">
-        <v>418750</v>
+        <v>1177750</v>
       </c>
       <c r="C87">
-        <v>401000</v>
+        <v>218900</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>45133</v>
+        <v>45164</v>
       </c>
       <c r="B88">
-        <v>395000</v>
+        <v>1987250</v>
       </c>
       <c r="C88">
-        <v>295700</v>
+        <v>780025</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>45134</v>
+        <v>45165</v>
       </c>
       <c r="B89">
-        <v>1350500</v>
+        <v>1166750</v>
       </c>
       <c r="C89">
-        <v>106100</v>
+        <v>1892300</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>45135</v>
+        <v>45166</v>
       </c>
       <c r="B90">
-        <v>1633250</v>
+        <v>1240750</v>
       </c>
       <c r="C90">
-        <v>1259800</v>
+        <v>607000</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>45136</v>
+        <v>45167</v>
       </c>
       <c r="B91">
-        <v>1259750</v>
+        <v>787500</v>
       </c>
       <c r="C91">
-        <v>205250</v>
+        <v>106000</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>45137</v>
+        <v>45168</v>
       </c>
       <c r="B92">
-        <v>1497000</v>
+        <v>2303250</v>
       </c>
       <c r="C92">
-        <v>2014850</v>
+        <v>1691750</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>45138</v>
+        <v>45169</v>
       </c>
       <c r="B93">
-        <v>405750</v>
+        <v>950500</v>
       </c>
       <c r="C93">
-        <v>811050</v>
+        <v>427450</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B94">
-        <v>516000</v>
+        <v>1594500</v>
       </c>
       <c r="C94">
-        <v>43000</v>
+        <v>234500</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>45140</v>
+        <v>45171</v>
       </c>
       <c r="B95">
-        <v>2514750</v>
+        <v>1524750</v>
       </c>
       <c r="C95">
-        <v>823500</v>
+        <v>245225</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>45141</v>
+        <v>45172</v>
       </c>
       <c r="B96">
-        <v>1210000</v>
+        <v>2195500</v>
       </c>
       <c r="C96">
-        <v>408150</v>
+        <v>2183725</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>45142</v>
+        <v>45173</v>
       </c>
       <c r="B97">
-        <v>1610750</v>
+        <v>822500</v>
       </c>
       <c r="C97">
-        <v>478000</v>
+        <v>1502600</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>45143</v>
+        <v>45174</v>
       </c>
       <c r="B98">
-        <v>1205750</v>
+        <v>660500</v>
       </c>
       <c r="C98">
-        <v>452650</v>
+        <v>424000</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>45144</v>
+        <v>45175</v>
       </c>
       <c r="B99">
-        <v>1454750</v>
+        <v>2406500</v>
       </c>
       <c r="C99">
-        <v>2012300</v>
+        <v>593200</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>45145</v>
+        <v>45176</v>
       </c>
       <c r="B100">
-        <v>582750</v>
+        <v>1045500</v>
       </c>
       <c r="C100">
-        <v>435450</v>
+        <v>576400</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>45146</v>
+        <v>45177</v>
       </c>
       <c r="B101">
-        <v>602500</v>
+        <v>2174500</v>
       </c>
       <c r="C101">
-        <v>123900</v>
+        <v>223200</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>45147</v>
+        <v>45178</v>
       </c>
       <c r="B102">
-        <v>2105750</v>
+        <v>1908750</v>
       </c>
       <c r="C102">
-        <v>764500</v>
+        <v>257600</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>45148</v>
+        <v>45179</v>
       </c>
       <c r="B103">
-        <v>1129500</v>
+        <v>1258500</v>
       </c>
       <c r="C103">
-        <v>1068450</v>
+        <v>2302200</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>45149</v>
+        <v>45180</v>
       </c>
       <c r="B104">
-        <v>1368250</v>
+        <v>1447000</v>
       </c>
       <c r="C104">
-        <v>556600</v>
+        <v>964300</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>45150</v>
+        <v>45181</v>
       </c>
       <c r="B105">
-        <v>2536500</v>
+        <v>745000</v>
       </c>
       <c r="C105">
-        <v>433100</v>
+        <v>307000</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>45151</v>
+        <v>45182</v>
       </c>
       <c r="B106">
-        <v>1090500</v>
+        <v>1215000</v>
       </c>
       <c r="C106">
-        <v>2517275</v>
+        <v>839250</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>45152</v>
+        <v>45183</v>
       </c>
       <c r="B107">
-        <v>1984500</v>
+        <v>1850500</v>
       </c>
       <c r="C107">
-        <v>246775</v>
+        <v>1066400</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>45153</v>
+        <v>45184</v>
       </c>
       <c r="B108">
-        <v>457250</v>
+        <v>1609100</v>
       </c>
       <c r="C108">
-        <v>42800</v>
+        <v>306800</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>45154</v>
+        <v>45185</v>
       </c>
       <c r="B109">
-        <v>2845600</v>
+        <v>2004000</v>
       </c>
       <c r="C109">
-        <v>1334150</v>
+        <v>318400</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>45155</v>
+        <v>45186</v>
       </c>
       <c r="B110">
-        <v>1144500</v>
+        <v>1225750</v>
       </c>
       <c r="C110">
-        <v>704300</v>
+        <v>2522575</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>45156</v>
+        <v>45187</v>
       </c>
       <c r="B111">
-        <v>1302500</v>
+        <v>411000</v>
       </c>
       <c r="C111">
-        <v>184700</v>
+        <v>953050</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>45157</v>
+        <v>45188</v>
       </c>
       <c r="B112">
-        <v>1354500</v>
+        <v>841000</v>
       </c>
       <c r="C112">
-        <v>118050</v>
+        <v>40500</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>45158</v>
+        <v>45189</v>
       </c>
       <c r="B113">
-        <v>34500</v>
+        <v>1660750</v>
       </c>
       <c r="C113">
-        <v>2252525</v>
+        <v>572000</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>45159</v>
+        <v>45190</v>
       </c>
       <c r="B114">
-        <v>663500</v>
+        <v>884000</v>
       </c>
       <c r="C114">
-        <v>1095000</v>
+        <v>673200</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>45160</v>
+        <v>45191</v>
       </c>
       <c r="B115">
-        <v>588500</v>
+        <v>1270000</v>
       </c>
       <c r="C115">
-        <v>265400</v>
+        <v>117250</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>45161</v>
-      </c>
-      <c r="B116">
-        <v>2563250</v>
+        <v>45192</v>
       </c>
       <c r="C116">
-        <v>1081100</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>45162</v>
+        <v>45193</v>
       </c>
       <c r="B117">
-        <v>1214000</v>
+        <v>1222000</v>
       </c>
       <c r="C117">
-        <v>374250</v>
+        <v>112300</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>45163</v>
+        <v>45194</v>
       </c>
       <c r="B118">
-        <v>1177750</v>
+        <v>1755000</v>
       </c>
       <c r="C118">
-        <v>218900</v>
+        <v>433075</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>45164</v>
+        <v>45195</v>
       </c>
       <c r="B119">
-        <v>1987250</v>
+        <v>645250</v>
       </c>
       <c r="C119">
-        <v>780025</v>
+        <v>108500</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>45165</v>
+        <v>45196</v>
       </c>
       <c r="B120">
-        <v>1166750</v>
+        <v>2072000</v>
       </c>
       <c r="C120">
-        <v>1892300</v>
+        <v>322400</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>45166</v>
+        <v>45197</v>
       </c>
       <c r="B121">
-        <v>1240750</v>
+        <v>1455750</v>
       </c>
       <c r="C121">
-        <v>607000</v>
+        <v>278025</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>45167</v>
+        <v>45198</v>
       </c>
       <c r="B122">
-        <v>787500</v>
+        <v>1482250</v>
       </c>
       <c r="C122">
-        <v>106000</v>
+        <v>372775</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>45168</v>
-      </c>
-      <c r="B123">
-        <v>2303250</v>
+        <v>45199</v>
       </c>
       <c r="C123">
-        <v>1691750</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2">
-        <v>45169</v>
-      </c>
-      <c r="B124">
-        <v>950500</v>
-      </c>
-      <c r="C124">
-        <v>427450</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2">
-        <v>45170</v>
-      </c>
-      <c r="B125">
-        <v>1594500</v>
-      </c>
-      <c r="C125">
-        <v>234500</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2">
-        <v>45171</v>
-      </c>
-      <c r="B126">
-        <v>1524750</v>
-      </c>
-      <c r="C126">
-        <v>245225</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2">
-        <v>45172</v>
-      </c>
-      <c r="B127">
-        <v>2195500</v>
-      </c>
-      <c r="C127">
-        <v>2183725</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2">
-        <v>45173</v>
-      </c>
-      <c r="B128">
-        <v>822500</v>
-      </c>
-      <c r="C128">
-        <v>1502600</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="2">
-        <v>45174</v>
-      </c>
-      <c r="B129">
-        <v>660500</v>
-      </c>
-      <c r="C129">
-        <v>424000</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2">
-        <v>45175</v>
-      </c>
-      <c r="B130">
-        <v>2406500</v>
-      </c>
-      <c r="C130">
-        <v>593200</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2">
-        <v>45176</v>
-      </c>
-      <c r="B131">
-        <v>1045500</v>
-      </c>
-      <c r="C131">
-        <v>576400</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2">
-        <v>45177</v>
-      </c>
-      <c r="B132">
-        <v>2174500</v>
-      </c>
-      <c r="C132">
-        <v>223200</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2">
-        <v>45178</v>
-      </c>
-      <c r="B133">
-        <v>1908750</v>
-      </c>
-      <c r="C133">
-        <v>257600</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2">
-        <v>45179</v>
-      </c>
-      <c r="B134">
-        <v>1258500</v>
-      </c>
-      <c r="C134">
-        <v>2302200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2">
-        <v>45180</v>
-      </c>
-      <c r="B135">
-        <v>1447000</v>
-      </c>
-      <c r="C135">
-        <v>964300</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2">
-        <v>45181</v>
-      </c>
-      <c r="B136">
-        <v>745000</v>
-      </c>
-      <c r="C136">
-        <v>307000</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="2">
-        <v>45182</v>
-      </c>
-      <c r="B137">
-        <v>1215000</v>
-      </c>
-      <c r="C137">
-        <v>839250</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2">
-        <v>45183</v>
-      </c>
-      <c r="B138">
-        <v>1850500</v>
-      </c>
-      <c r="C138">
-        <v>1066400</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2">
-        <v>45184</v>
-      </c>
-      <c r="B139">
-        <v>1609100</v>
-      </c>
-      <c r="C139">
-        <v>306800</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="2">
-        <v>45185</v>
-      </c>
-      <c r="B140">
-        <v>2004000</v>
-      </c>
-      <c r="C140">
-        <v>318400</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="2">
-        <v>45186</v>
-      </c>
-      <c r="B141">
-        <v>1225750</v>
-      </c>
-      <c r="C141">
-        <v>2522575</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="2">
-        <v>45187</v>
-      </c>
-      <c r="B142">
-        <v>411000</v>
-      </c>
-      <c r="C142">
-        <v>953050</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="2">
-        <v>45188</v>
-      </c>
-      <c r="B143">
-        <v>841000</v>
-      </c>
-      <c r="C143">
-        <v>40500</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2">
-        <v>45189</v>
-      </c>
-      <c r="B144">
-        <v>1660750</v>
-      </c>
-      <c r="C144">
-        <v>572000</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2">
-        <v>45190</v>
-      </c>
-      <c r="B145">
-        <v>884000</v>
-      </c>
-      <c r="C145">
-        <v>673200</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
-      <c r="A146" s="2">
-        <v>45191</v>
-      </c>
-      <c r="B146">
-        <v>1270000</v>
-      </c>
-      <c r="C146">
-        <v>117250</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3">
-      <c r="A147" s="2">
-        <v>45192</v>
-      </c>
-      <c r="C147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="2">
-        <v>45193</v>
-      </c>
-      <c r="B148">
-        <v>1222000</v>
-      </c>
-      <c r="C148">
-        <v>112300</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2">
-        <v>45194</v>
-      </c>
-      <c r="B149">
-        <v>1755000</v>
-      </c>
-      <c r="C149">
-        <v>433075</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2">
-        <v>45195</v>
-      </c>
-      <c r="B150">
-        <v>645250</v>
-      </c>
-      <c r="C150">
-        <v>108500</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2">
-        <v>45196</v>
-      </c>
-      <c r="B151">
-        <v>2072000</v>
-      </c>
-      <c r="C151">
-        <v>322400</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3">
-      <c r="A152" s="2">
-        <v>45197</v>
-      </c>
-      <c r="B152">
-        <v>1455750</v>
-      </c>
-      <c r="C152">
-        <v>278025</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3">
-      <c r="A153" s="2">
-        <v>45198</v>
-      </c>
-      <c r="B153">
-        <v>1482250</v>
-      </c>
-      <c r="C153">
-        <v>372775</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3">
-      <c r="A154" s="2">
-        <v>45199</v>
-      </c>
-      <c r="C154">
         <v>200000</v>
       </c>
     </row>

--- a/feuille_consolid.xlsx
+++ b/feuille_consolid.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C123"/>
+  <dimension ref="A1:C195"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -403,1338 +403,2121 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>45078</v>
-      </c>
-      <c r="B2">
-        <v>353000</v>
-      </c>
-      <c r="C2">
-        <v>289000</v>
+        <v>45037</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>45079</v>
+        <v>45038</v>
       </c>
       <c r="B3">
-        <v>504250</v>
+        <v>686500</v>
       </c>
       <c r="C3">
-        <v>43300</v>
+        <v>151210</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>45080</v>
+        <v>45039</v>
       </c>
       <c r="B4">
-        <v>549500</v>
+        <v>492200</v>
       </c>
       <c r="C4">
-        <v>274550</v>
+        <v>89405</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
-        <v>45081</v>
+        <v>45040</v>
       </c>
       <c r="B5">
-        <v>214500</v>
+        <v>139500</v>
       </c>
       <c r="C5">
-        <v>344650</v>
+        <v>165500</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>45082</v>
+        <v>45041</v>
       </c>
       <c r="B6">
-        <v>162500</v>
+        <v>157000</v>
       </c>
       <c r="C6">
-        <v>132725</v>
+        <v>174000</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>45083</v>
+        <v>45042</v>
       </c>
       <c r="B7">
-        <v>311750</v>
+        <v>590500</v>
       </c>
       <c r="C7">
-        <v>212350</v>
+        <v>176325</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>45084</v>
+        <v>45043</v>
       </c>
       <c r="B8">
-        <v>520000</v>
+        <v>164500</v>
       </c>
       <c r="C8">
-        <v>260850</v>
+        <v>113700</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2">
-        <v>45085</v>
+        <v>45044</v>
       </c>
       <c r="B9">
-        <v>437250</v>
+        <v>289500</v>
       </c>
       <c r="C9">
-        <v>123250</v>
+        <v>347750</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
-        <v>45086</v>
+        <v>45045</v>
       </c>
       <c r="B10">
-        <v>1019500</v>
+        <v>564600</v>
       </c>
       <c r="C10">
-        <v>159075</v>
+        <v>119000</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>45087</v>
+        <v>45046</v>
       </c>
       <c r="B11">
-        <v>1153500</v>
+        <v>443000</v>
       </c>
       <c r="C11">
-        <v>168050</v>
+        <v>2007660</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2">
-        <v>45088</v>
+        <v>45047</v>
       </c>
       <c r="B12">
-        <v>942250</v>
-      </c>
-      <c r="C12">
-        <v>1425850</v>
+        <v>300500</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2">
-        <v>45089</v>
+        <v>45048</v>
       </c>
       <c r="B13">
-        <v>376500</v>
+        <v>136000</v>
       </c>
       <c r="C13">
-        <v>191225</v>
+        <v>130500</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
-        <v>45090</v>
+        <v>45049</v>
       </c>
       <c r="B14">
-        <v>417000</v>
+        <v>211500</v>
       </c>
       <c r="C14">
-        <v>127000</v>
+        <v>78650</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2">
-        <v>45091</v>
+        <v>45050</v>
       </c>
       <c r="B15">
-        <v>997250</v>
+        <v>267500</v>
       </c>
       <c r="C15">
-        <v>410925</v>
+        <v>218750</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>45092</v>
+        <v>45051</v>
       </c>
       <c r="B16">
-        <v>343000</v>
+        <v>399800</v>
       </c>
       <c r="C16">
-        <v>275925</v>
+        <v>230300</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>45093</v>
+        <v>45052</v>
       </c>
       <c r="B17">
-        <v>1074250</v>
+        <v>381600</v>
       </c>
       <c r="C17">
-        <v>180100</v>
+        <v>91500</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>45094</v>
+        <v>45053</v>
       </c>
       <c r="B18">
-        <v>1124750</v>
+        <v>249500</v>
       </c>
       <c r="C18">
-        <v>628400</v>
+        <v>164500</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>45095</v>
+        <v>45054</v>
       </c>
       <c r="B19">
-        <v>392500</v>
+        <v>95000</v>
       </c>
       <c r="C19">
-        <v>1958050</v>
+        <v>187150</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>45096</v>
+        <v>45055</v>
       </c>
       <c r="B20">
-        <v>145500</v>
+        <v>156000</v>
       </c>
       <c r="C20">
-        <v>201125</v>
+        <v>335327.39623</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>45097</v>
+        <v>45056</v>
       </c>
       <c r="B21">
-        <v>852000</v>
+        <v>440500</v>
       </c>
       <c r="C21">
-        <v>97300</v>
+        <v>133200</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>45098</v>
+        <v>45057</v>
       </c>
       <c r="B22">
-        <v>1422250</v>
+        <v>150400</v>
       </c>
       <c r="C22">
-        <v>185750</v>
+        <v>296300</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>45099</v>
+        <v>45058</v>
       </c>
       <c r="B23">
-        <v>493000</v>
+        <v>752500</v>
       </c>
       <c r="C23">
-        <v>247700</v>
+        <v>100150</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>45100</v>
+        <v>45059</v>
       </c>
       <c r="B24">
-        <v>654250</v>
+        <v>771000</v>
       </c>
       <c r="C24">
-        <v>257950</v>
+        <v>154750</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>45101</v>
+        <v>45060</v>
       </c>
       <c r="B25">
-        <v>977750</v>
+        <v>845500</v>
       </c>
       <c r="C25">
-        <v>164500</v>
+        <v>166750</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>45102</v>
+        <v>45061</v>
       </c>
       <c r="B26">
-        <v>792750</v>
+        <v>638500</v>
       </c>
       <c r="C26">
-        <v>1569500</v>
+        <v>1359175</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>45103</v>
+        <v>45062</v>
       </c>
       <c r="B27">
-        <v>335500</v>
+        <v>273000</v>
       </c>
       <c r="C27">
-        <v>261325</v>
+        <v>313250</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>45104</v>
+        <v>45063</v>
       </c>
       <c r="B28">
-        <v>653500</v>
+        <v>931000</v>
       </c>
       <c r="C28">
-        <v>191425</v>
+        <v>406525</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>45105</v>
+        <v>45064</v>
       </c>
       <c r="B29">
-        <v>1170500</v>
+        <v>419000</v>
       </c>
       <c r="C29">
-        <v>330450</v>
+        <v>187950</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>45106</v>
+        <v>45065</v>
       </c>
       <c r="B30">
-        <v>602250</v>
+        <v>375000</v>
       </c>
       <c r="C30">
-        <v>304300</v>
+        <v>360050</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>45107</v>
+        <v>45066</v>
       </c>
       <c r="B31">
-        <v>1478500</v>
+        <v>745250</v>
       </c>
       <c r="C31">
-        <v>1165250</v>
+        <v>125900</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>45108</v>
+        <v>45067</v>
       </c>
       <c r="B32">
-        <v>705500</v>
+        <v>276500</v>
       </c>
       <c r="C32">
-        <v>311750</v>
+        <v>403772.26</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>45109</v>
+        <v>45068</v>
       </c>
       <c r="B33">
-        <v>463500</v>
+        <v>214150</v>
       </c>
       <c r="C33">
-        <v>1641600</v>
+        <v>805850</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>45110</v>
+        <v>45069</v>
       </c>
       <c r="B34">
-        <v>465000</v>
+        <v>446500</v>
       </c>
       <c r="C34">
-        <v>255250</v>
+        <v>63000</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>45111</v>
+        <v>45070</v>
       </c>
       <c r="B35">
-        <v>355750</v>
+        <v>186600</v>
       </c>
       <c r="C35">
-        <v>114550</v>
+        <v>323850</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>45112</v>
+        <v>45071</v>
       </c>
       <c r="B36">
-        <v>1286500</v>
+        <v>245500</v>
       </c>
       <c r="C36">
-        <v>509900</v>
+        <v>127600</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>45113</v>
+        <v>45072</v>
       </c>
       <c r="B37">
-        <v>566000</v>
+        <v>302000</v>
       </c>
       <c r="C37">
-        <v>231200</v>
+        <v>122650</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>45114</v>
+        <v>45073</v>
       </c>
       <c r="B38">
-        <v>1675250</v>
+        <v>481500</v>
       </c>
       <c r="C38">
-        <v>242025</v>
+        <v>176750</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>45115</v>
+        <v>45074</v>
       </c>
       <c r="B39">
-        <v>1010250</v>
+        <v>615250</v>
       </c>
       <c r="C39">
-        <v>937650</v>
+        <v>663600</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>45116</v>
+        <v>45075</v>
       </c>
       <c r="B40">
-        <v>1693000</v>
+        <v>214500</v>
       </c>
       <c r="C40">
-        <v>1763350</v>
+        <v>135800</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>45117</v>
+        <v>45076</v>
       </c>
       <c r="B41">
-        <v>394250</v>
+        <v>209250</v>
       </c>
       <c r="C41">
-        <v>330150</v>
+        <v>111450</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>45118</v>
+        <v>45077</v>
       </c>
       <c r="B42">
-        <v>388250</v>
+        <v>494250</v>
       </c>
       <c r="C42">
-        <v>78450</v>
+        <v>2530650</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>45119</v>
+        <v>45078</v>
       </c>
       <c r="B43">
-        <v>1230500</v>
+        <v>353000</v>
       </c>
       <c r="C43">
-        <v>389925</v>
+        <v>289000</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>45120</v>
+        <v>45079</v>
       </c>
       <c r="B44">
-        <v>1125500</v>
+        <v>504250</v>
       </c>
       <c r="C44">
-        <v>454775</v>
+        <v>43300</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>45121</v>
+        <v>45080</v>
       </c>
       <c r="B45">
-        <v>1189750</v>
+        <v>549500</v>
       </c>
       <c r="C45">
-        <v>435550</v>
+        <v>274550</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>45122</v>
+        <v>45081</v>
       </c>
       <c r="B46">
-        <v>950750</v>
+        <v>214500</v>
       </c>
       <c r="C46">
-        <v>382000</v>
+        <v>344650</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>45123</v>
+        <v>45082</v>
       </c>
       <c r="B47">
-        <v>872500</v>
+        <v>162500</v>
       </c>
       <c r="C47">
-        <v>1038250</v>
+        <v>132725</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>45124</v>
+        <v>45083</v>
       </c>
       <c r="B48">
-        <v>361500</v>
+        <v>311750</v>
       </c>
       <c r="C48">
-        <v>390100</v>
+        <v>212350</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>45125</v>
+        <v>45084</v>
       </c>
       <c r="B49">
-        <v>539000</v>
+        <v>520000</v>
       </c>
       <c r="C49">
-        <v>163850</v>
+        <v>260850</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>45126</v>
+        <v>45085</v>
       </c>
       <c r="B50">
-        <v>909000</v>
+        <v>437250</v>
       </c>
       <c r="C50">
-        <v>971150</v>
+        <v>123250</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>45127</v>
+        <v>45086</v>
       </c>
       <c r="B51">
-        <v>947750</v>
+        <v>1019500</v>
       </c>
       <c r="C51">
-        <v>241300</v>
+        <v>159075</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>45128</v>
+        <v>45087</v>
       </c>
       <c r="B52">
-        <v>1934000</v>
+        <v>1153500</v>
       </c>
       <c r="C52">
-        <v>383300</v>
+        <v>168050</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>45129</v>
+        <v>45088</v>
       </c>
       <c r="B53">
-        <v>1042750</v>
+        <v>942250</v>
       </c>
       <c r="C53">
-        <v>348750</v>
+        <v>1425850</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>45130</v>
+        <v>45089</v>
       </c>
       <c r="B54">
-        <v>1412000</v>
+        <v>376500</v>
       </c>
       <c r="C54">
-        <v>1801025</v>
+        <v>191225</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>45131</v>
+        <v>45090</v>
       </c>
       <c r="B55">
-        <v>343500</v>
+        <v>417000</v>
       </c>
       <c r="C55">
-        <v>205650</v>
+        <v>127000</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>45132</v>
+        <v>45091</v>
       </c>
       <c r="B56">
-        <v>418750</v>
+        <v>997250</v>
       </c>
       <c r="C56">
-        <v>401000</v>
+        <v>410925</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>45133</v>
+        <v>45092</v>
       </c>
       <c r="B57">
-        <v>395000</v>
+        <v>343000</v>
       </c>
       <c r="C57">
-        <v>295700</v>
+        <v>275925</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>45134</v>
+        <v>45093</v>
       </c>
       <c r="B58">
-        <v>1350500</v>
+        <v>1074250</v>
       </c>
       <c r="C58">
-        <v>106100</v>
+        <v>180100</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>45135</v>
+        <v>45094</v>
       </c>
       <c r="B59">
-        <v>1633250</v>
+        <v>1124750</v>
       </c>
       <c r="C59">
-        <v>1259800</v>
+        <v>628400</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>45136</v>
+        <v>45095</v>
       </c>
       <c r="B60">
-        <v>1259750</v>
+        <v>392500</v>
       </c>
       <c r="C60">
-        <v>205250</v>
+        <v>1958050</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>45137</v>
+        <v>45096</v>
       </c>
       <c r="B61">
-        <v>1497000</v>
+        <v>145500</v>
       </c>
       <c r="C61">
-        <v>2014850</v>
+        <v>201125</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>45138</v>
+        <v>45097</v>
       </c>
       <c r="B62">
-        <v>405750</v>
+        <v>852000</v>
       </c>
       <c r="C62">
-        <v>811050</v>
+        <v>97300</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>45139</v>
+        <v>45098</v>
       </c>
       <c r="B63">
-        <v>516000</v>
+        <v>1422250</v>
       </c>
       <c r="C63">
-        <v>43000</v>
+        <v>185750</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>45140</v>
+        <v>45099</v>
       </c>
       <c r="B64">
-        <v>2514750</v>
+        <v>493000</v>
       </c>
       <c r="C64">
-        <v>823500</v>
+        <v>247700</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>45141</v>
+        <v>45100</v>
       </c>
       <c r="B65">
-        <v>1210000</v>
+        <v>654250</v>
       </c>
       <c r="C65">
-        <v>408150</v>
+        <v>257950</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>45142</v>
+        <v>45101</v>
       </c>
       <c r="B66">
-        <v>1610750</v>
+        <v>977750</v>
       </c>
       <c r="C66">
-        <v>478000</v>
+        <v>164500</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>45143</v>
+        <v>45102</v>
       </c>
       <c r="B67">
-        <v>1205750</v>
+        <v>792750</v>
       </c>
       <c r="C67">
-        <v>452650</v>
+        <v>1569500</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>45144</v>
+        <v>45103</v>
       </c>
       <c r="B68">
-        <v>1454750</v>
+        <v>335500</v>
       </c>
       <c r="C68">
-        <v>2012300</v>
+        <v>261325</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>45145</v>
+        <v>45104</v>
       </c>
       <c r="B69">
-        <v>582750</v>
+        <v>653500</v>
       </c>
       <c r="C69">
-        <v>435450</v>
+        <v>191425</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>45146</v>
+        <v>45105</v>
       </c>
       <c r="B70">
-        <v>602500</v>
+        <v>1170500</v>
       </c>
       <c r="C70">
-        <v>123900</v>
+        <v>330450</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>45147</v>
+        <v>45106</v>
       </c>
       <c r="B71">
-        <v>2105750</v>
+        <v>602250</v>
       </c>
       <c r="C71">
-        <v>764500</v>
+        <v>304300</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>45148</v>
+        <v>45107</v>
       </c>
       <c r="B72">
-        <v>1129500</v>
+        <v>1478500</v>
       </c>
       <c r="C72">
-        <v>1068450</v>
+        <v>1165250</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>45149</v>
+        <v>45108</v>
       </c>
       <c r="B73">
-        <v>1368250</v>
+        <v>705500</v>
       </c>
       <c r="C73">
-        <v>556600</v>
+        <v>311750</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>45150</v>
+        <v>45109</v>
       </c>
       <c r="B74">
-        <v>2536500</v>
+        <v>463500</v>
       </c>
       <c r="C74">
-        <v>433100</v>
+        <v>1641600</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>45151</v>
+        <v>45110</v>
       </c>
       <c r="B75">
-        <v>1090500</v>
+        <v>465000</v>
       </c>
       <c r="C75">
-        <v>2517275</v>
+        <v>255250</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>45152</v>
+        <v>45111</v>
       </c>
       <c r="B76">
-        <v>1984500</v>
+        <v>355750</v>
       </c>
       <c r="C76">
-        <v>246775</v>
+        <v>114550</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>45153</v>
+        <v>45112</v>
       </c>
       <c r="B77">
-        <v>457250</v>
+        <v>1286500</v>
       </c>
       <c r="C77">
-        <v>42800</v>
+        <v>509900</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>45154</v>
+        <v>45113</v>
       </c>
       <c r="B78">
-        <v>2845600</v>
+        <v>566000</v>
       </c>
       <c r="C78">
-        <v>1334150</v>
+        <v>231200</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>45155</v>
+        <v>45114</v>
       </c>
       <c r="B79">
-        <v>1144500</v>
+        <v>1675250</v>
       </c>
       <c r="C79">
-        <v>704300</v>
+        <v>242025</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>45156</v>
+        <v>45115</v>
       </c>
       <c r="B80">
-        <v>1302500</v>
+        <v>1010250</v>
       </c>
       <c r="C80">
-        <v>184700</v>
+        <v>937650</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>45157</v>
+        <v>45116</v>
       </c>
       <c r="B81">
-        <v>1354500</v>
+        <v>1693000</v>
       </c>
       <c r="C81">
-        <v>118050</v>
+        <v>1763350</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>45158</v>
+        <v>45117</v>
       </c>
       <c r="B82">
-        <v>34500</v>
+        <v>394250</v>
       </c>
       <c r="C82">
-        <v>2252525</v>
+        <v>330150</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>45159</v>
+        <v>45118</v>
       </c>
       <c r="B83">
-        <v>663500</v>
+        <v>388250</v>
       </c>
       <c r="C83">
-        <v>1095000</v>
+        <v>78450</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>45160</v>
+        <v>45119</v>
       </c>
       <c r="B84">
-        <v>588500</v>
+        <v>1230500</v>
       </c>
       <c r="C84">
-        <v>265400</v>
+        <v>389925</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>45161</v>
+        <v>45120</v>
       </c>
       <c r="B85">
-        <v>2563250</v>
+        <v>1125500</v>
       </c>
       <c r="C85">
-        <v>1081100</v>
+        <v>454775</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>45162</v>
+        <v>45121</v>
       </c>
       <c r="B86">
-        <v>1214000</v>
+        <v>1189750</v>
       </c>
       <c r="C86">
-        <v>374250</v>
+        <v>435550</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>45163</v>
+        <v>45122</v>
       </c>
       <c r="B87">
-        <v>1177750</v>
+        <v>950750</v>
       </c>
       <c r="C87">
-        <v>218900</v>
+        <v>382000</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>45164</v>
+        <v>45123</v>
       </c>
       <c r="B88">
-        <v>1987250</v>
+        <v>872500</v>
       </c>
       <c r="C88">
-        <v>780025</v>
+        <v>1038250</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>45165</v>
+        <v>45124</v>
       </c>
       <c r="B89">
-        <v>1166750</v>
+        <v>361500</v>
       </c>
       <c r="C89">
-        <v>1892300</v>
+        <v>390100</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>45166</v>
+        <v>45125</v>
       </c>
       <c r="B90">
-        <v>1240750</v>
+        <v>539000</v>
       </c>
       <c r="C90">
-        <v>607000</v>
+        <v>163850</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>45167</v>
+        <v>45126</v>
       </c>
       <c r="B91">
-        <v>787500</v>
+        <v>909000</v>
       </c>
       <c r="C91">
-        <v>106000</v>
+        <v>971150</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>45168</v>
+        <v>45127</v>
       </c>
       <c r="B92">
-        <v>2303250</v>
+        <v>947750</v>
       </c>
       <c r="C92">
-        <v>1691750</v>
+        <v>241300</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>45169</v>
+        <v>45128</v>
       </c>
       <c r="B93">
-        <v>950500</v>
+        <v>1934000</v>
       </c>
       <c r="C93">
-        <v>427450</v>
+        <v>383300</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>45170</v>
+        <v>45129</v>
       </c>
       <c r="B94">
-        <v>1594500</v>
+        <v>1042750</v>
       </c>
       <c r="C94">
-        <v>234500</v>
+        <v>348750</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>45171</v>
+        <v>45130</v>
       </c>
       <c r="B95">
-        <v>1524750</v>
+        <v>1412000</v>
       </c>
       <c r="C95">
-        <v>245225</v>
+        <v>1801025</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>45172</v>
+        <v>45131</v>
       </c>
       <c r="B96">
-        <v>2195500</v>
+        <v>343500</v>
       </c>
       <c r="C96">
-        <v>2183725</v>
+        <v>205650</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>45173</v>
+        <v>45132</v>
       </c>
       <c r="B97">
-        <v>822500</v>
+        <v>418750</v>
       </c>
       <c r="C97">
-        <v>1502600</v>
+        <v>401000</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>45174</v>
+        <v>45133</v>
       </c>
       <c r="B98">
-        <v>660500</v>
+        <v>395000</v>
       </c>
       <c r="C98">
-        <v>424000</v>
+        <v>295700</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>45175</v>
+        <v>45134</v>
       </c>
       <c r="B99">
-        <v>2406500</v>
+        <v>1350500</v>
       </c>
       <c r="C99">
-        <v>593200</v>
+        <v>106100</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>45176</v>
+        <v>45135</v>
       </c>
       <c r="B100">
-        <v>1045500</v>
+        <v>1633250</v>
       </c>
       <c r="C100">
-        <v>576400</v>
+        <v>1259800</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>45177</v>
+        <v>45136</v>
       </c>
       <c r="B101">
-        <v>2174500</v>
+        <v>1259750</v>
       </c>
       <c r="C101">
-        <v>223200</v>
+        <v>205250</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>45178</v>
+        <v>45137</v>
       </c>
       <c r="B102">
-        <v>1908750</v>
+        <v>1497000</v>
       </c>
       <c r="C102">
-        <v>257600</v>
+        <v>2014850</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>45179</v>
+        <v>45138</v>
       </c>
       <c r="B103">
-        <v>1258500</v>
+        <v>405750</v>
       </c>
       <c r="C103">
-        <v>2302200</v>
+        <v>811050</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>45180</v>
+        <v>45139</v>
       </c>
       <c r="B104">
-        <v>1447000</v>
+        <v>516000</v>
       </c>
       <c r="C104">
-        <v>964300</v>
+        <v>43000</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>45181</v>
+        <v>45140</v>
       </c>
       <c r="B105">
-        <v>745000</v>
+        <v>2514750</v>
       </c>
       <c r="C105">
-        <v>307000</v>
+        <v>823500</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>45182</v>
+        <v>45141</v>
       </c>
       <c r="B106">
-        <v>1215000</v>
+        <v>1210000</v>
       </c>
       <c r="C106">
-        <v>839250</v>
+        <v>408150</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>45183</v>
+        <v>45142</v>
       </c>
       <c r="B107">
-        <v>1850500</v>
+        <v>1610750</v>
       </c>
       <c r="C107">
-        <v>1066400</v>
+        <v>478000</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>45184</v>
+        <v>45143</v>
       </c>
       <c r="B108">
-        <v>1609100</v>
+        <v>1205750</v>
       </c>
       <c r="C108">
-        <v>306800</v>
+        <v>452650</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>45185</v>
+        <v>45144</v>
       </c>
       <c r="B109">
-        <v>2004000</v>
+        <v>1454750</v>
       </c>
       <c r="C109">
-        <v>318400</v>
+        <v>2012300</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>45186</v>
+        <v>45145</v>
       </c>
       <c r="B110">
-        <v>1225750</v>
+        <v>582750</v>
       </c>
       <c r="C110">
-        <v>2522575</v>
+        <v>435450</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>45187</v>
+        <v>45146</v>
       </c>
       <c r="B111">
-        <v>411000</v>
+        <v>602500</v>
       </c>
       <c r="C111">
-        <v>953050</v>
+        <v>123900</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>45188</v>
+        <v>45147</v>
       </c>
       <c r="B112">
-        <v>841000</v>
+        <v>2105750</v>
       </c>
       <c r="C112">
-        <v>40500</v>
+        <v>764500</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>45189</v>
+        <v>45148</v>
       </c>
       <c r="B113">
-        <v>1660750</v>
+        <v>1129500</v>
       </c>
       <c r="C113">
-        <v>572000</v>
+        <v>1068450</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>45190</v>
+        <v>45149</v>
       </c>
       <c r="B114">
-        <v>884000</v>
+        <v>1368250</v>
       </c>
       <c r="C114">
-        <v>673200</v>
+        <v>556600</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>45191</v>
+        <v>45150</v>
       </c>
       <c r="B115">
-        <v>1270000</v>
+        <v>2536500</v>
       </c>
       <c r="C115">
-        <v>117250</v>
+        <v>433100</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>45192</v>
+        <v>45151</v>
+      </c>
+      <c r="B116">
+        <v>1090500</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>2517275</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>45193</v>
+        <v>45152</v>
       </c>
       <c r="B117">
-        <v>1222000</v>
+        <v>1984500</v>
       </c>
       <c r="C117">
-        <v>112300</v>
+        <v>246775</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>45194</v>
+        <v>45153</v>
       </c>
       <c r="B118">
-        <v>1755000</v>
+        <v>457250</v>
       </c>
       <c r="C118">
-        <v>433075</v>
+        <v>42800</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>45195</v>
+        <v>45154</v>
       </c>
       <c r="B119">
-        <v>645250</v>
+        <v>2845600</v>
       </c>
       <c r="C119">
-        <v>108500</v>
+        <v>1334150</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>45196</v>
+        <v>45155</v>
       </c>
       <c r="B120">
-        <v>2072000</v>
+        <v>1144500</v>
       </c>
       <c r="C120">
-        <v>322400</v>
+        <v>704300</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>45197</v>
+        <v>45156</v>
       </c>
       <c r="B121">
-        <v>1455750</v>
+        <v>1302500</v>
       </c>
       <c r="C121">
-        <v>278025</v>
+        <v>184700</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>45198</v>
+        <v>45157</v>
       </c>
       <c r="B122">
-        <v>1482250</v>
+        <v>1354500</v>
       </c>
       <c r="C122">
-        <v>372775</v>
+        <v>118050</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
+        <v>45158</v>
+      </c>
+      <c r="B123">
+        <v>34500</v>
+      </c>
+      <c r="C123">
+        <v>2252525</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45159</v>
+      </c>
+      <c r="B124">
+        <v>663500</v>
+      </c>
+      <c r="C124">
+        <v>1095000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B125">
+        <v>588500</v>
+      </c>
+      <c r="C125">
+        <v>265400</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B126">
+        <v>2563250</v>
+      </c>
+      <c r="C126">
+        <v>1081100</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B127">
+        <v>1214000</v>
+      </c>
+      <c r="C127">
+        <v>374250</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B128">
+        <v>1177750</v>
+      </c>
+      <c r="C128">
+        <v>218900</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B129">
+        <v>1987250</v>
+      </c>
+      <c r="C129">
+        <v>780025</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B130">
+        <v>1166750</v>
+      </c>
+      <c r="C130">
+        <v>1892300</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B131">
+        <v>1240750</v>
+      </c>
+      <c r="C131">
+        <v>607000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B132">
+        <v>787500</v>
+      </c>
+      <c r="C132">
+        <v>106000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B133">
+        <v>2303250</v>
+      </c>
+      <c r="C133">
+        <v>1691750</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B134">
+        <v>950500</v>
+      </c>
+      <c r="C134">
+        <v>427450</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B135">
+        <v>1594500</v>
+      </c>
+      <c r="C135">
+        <v>234500</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B136">
+        <v>1524750</v>
+      </c>
+      <c r="C136">
+        <v>245225</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B137">
+        <v>2195500</v>
+      </c>
+      <c r="C137">
+        <v>2183725</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B138">
+        <v>822500</v>
+      </c>
+      <c r="C138">
+        <v>1502600</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B139">
+        <v>660500</v>
+      </c>
+      <c r="C139">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B140">
+        <v>2406500</v>
+      </c>
+      <c r="C140">
+        <v>593200</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B141">
+        <v>1045500</v>
+      </c>
+      <c r="C141">
+        <v>576400</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B142">
+        <v>2174500</v>
+      </c>
+      <c r="C142">
+        <v>223200</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B143">
+        <v>1908750</v>
+      </c>
+      <c r="C143">
+        <v>257600</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B144">
+        <v>1258500</v>
+      </c>
+      <c r="C144">
+        <v>2302200</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B145">
+        <v>1447000</v>
+      </c>
+      <c r="C145">
+        <v>964300</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B146">
+        <v>745000</v>
+      </c>
+      <c r="C146">
+        <v>307000</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B147">
+        <v>1215000</v>
+      </c>
+      <c r="C147">
+        <v>839250</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B148">
+        <v>1850500</v>
+      </c>
+      <c r="C148">
+        <v>1066400</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B149">
+        <v>1609100</v>
+      </c>
+      <c r="C149">
+        <v>306800</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B150">
+        <v>2004000</v>
+      </c>
+      <c r="C150">
+        <v>318400</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B151">
+        <v>1225750</v>
+      </c>
+      <c r="C151">
+        <v>2522575</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B152">
+        <v>411000</v>
+      </c>
+      <c r="C152">
+        <v>953050</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B153">
+        <v>841000</v>
+      </c>
+      <c r="C153">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B154">
+        <v>1660750</v>
+      </c>
+      <c r="C154">
+        <v>572000</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B155">
+        <v>884000</v>
+      </c>
+      <c r="C155">
+        <v>673200</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B156">
+        <v>1270000</v>
+      </c>
+      <c r="C156">
+        <v>117250</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
+        <v>45192</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B158">
+        <v>1222000</v>
+      </c>
+      <c r="C158">
+        <v>112300</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B159">
+        <v>1755000</v>
+      </c>
+      <c r="C159">
+        <v>433075</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B160">
+        <v>645250</v>
+      </c>
+      <c r="C160">
+        <v>108500</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B161">
+        <v>2072000</v>
+      </c>
+      <c r="C161">
+        <v>322400</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B162">
+        <v>1455750</v>
+      </c>
+      <c r="C162">
+        <v>278025</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B163">
+        <v>1482250</v>
+      </c>
+      <c r="C163">
+        <v>372775</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
         <v>45199</v>
       </c>
-      <c r="C123">
+      <c r="C164">
         <v>200000</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B165">
+        <v>1028750</v>
+      </c>
+      <c r="C165">
+        <v>2236800</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B166">
+        <v>470500</v>
+      </c>
+      <c r="C166">
+        <v>347425</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B167">
+        <v>923250</v>
+      </c>
+      <c r="C167">
+        <v>487000</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B168">
+        <v>1560000</v>
+      </c>
+      <c r="C168">
+        <v>399450</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B169">
+        <v>1383000</v>
+      </c>
+      <c r="C169">
+        <v>1147050</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B170">
+        <v>1809000</v>
+      </c>
+      <c r="C170">
+        <v>343950</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B171">
+        <v>1222750</v>
+      </c>
+      <c r="C171">
+        <v>283350</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B172">
+        <v>2078000</v>
+      </c>
+      <c r="C172">
+        <v>2898000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
+        <v>45208</v>
+      </c>
+      <c r="B173">
+        <v>676500</v>
+      </c>
+      <c r="C173">
+        <v>205800</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B174">
+        <v>538250</v>
+      </c>
+      <c r="C174">
+        <v>71600</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B175">
+        <v>1600500</v>
+      </c>
+      <c r="C175">
+        <v>993225</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B176">
+        <v>1163750</v>
+      </c>
+      <c r="C176">
+        <v>348600</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B177">
+        <v>1578000</v>
+      </c>
+      <c r="C177">
+        <v>703650</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B178">
+        <v>1579750</v>
+      </c>
+      <c r="C178">
+        <v>752800</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B179">
+        <v>1580500</v>
+      </c>
+      <c r="C179">
+        <v>1848100</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B180">
+        <v>542250</v>
+      </c>
+      <c r="C180">
+        <v>257150</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B181">
+        <v>949000</v>
+      </c>
+      <c r="C181">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B182">
+        <v>1774250</v>
+      </c>
+      <c r="C182">
+        <v>250850</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B183">
+        <v>985000</v>
+      </c>
+      <c r="C183">
+        <v>409900</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B184">
+        <v>1147500</v>
+      </c>
+      <c r="C184">
+        <v>516450</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B185">
+        <v>1131000</v>
+      </c>
+      <c r="C185">
+        <v>371650</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B186">
+        <v>2120000</v>
+      </c>
+      <c r="C186">
+        <v>1911450</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B187">
+        <v>444000</v>
+      </c>
+      <c r="C187">
+        <v>939550</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B188">
+        <v>1008250</v>
+      </c>
+      <c r="C188">
+        <v>126000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B189">
+        <v>1591250</v>
+      </c>
+      <c r="C189">
+        <v>330325</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B190">
+        <v>1170500</v>
+      </c>
+      <c r="C190">
+        <v>1086800</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B191">
+        <v>1144500</v>
+      </c>
+      <c r="C191">
+        <v>476225</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B192">
+        <v>1271000</v>
+      </c>
+      <c r="C192">
+        <v>328300</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B193">
+        <v>1287750</v>
+      </c>
+      <c r="C193">
+        <v>1301450</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B194">
+        <v>754250</v>
+      </c>
+      <c r="C194">
+        <v>400800</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B195">
+        <v>1412250</v>
+      </c>
+      <c r="C195">
+        <v>363000</v>
       </c>
     </row>
   </sheetData>

--- a/feuille_consolid.xlsx
+++ b/feuille_consolid.xlsx
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C195"/>
+  <dimension ref="A1:C377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2520,6 +2520,2002 @@
         <v>363000</v>
       </c>
     </row>
+    <row r="196" spans="1:3">
+      <c r="A196" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B196">
+        <v>1594500</v>
+      </c>
+      <c r="C196">
+        <v>234500</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B197">
+        <v>1524750</v>
+      </c>
+      <c r="C197">
+        <v>245225</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B198">
+        <v>2195500</v>
+      </c>
+      <c r="C198">
+        <v>2183725</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B199">
+        <v>822500</v>
+      </c>
+      <c r="C199">
+        <v>1502600</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B200">
+        <v>660500</v>
+      </c>
+      <c r="C200">
+        <v>424000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B201">
+        <v>2406500</v>
+      </c>
+      <c r="C201">
+        <v>593200</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B202">
+        <v>1045500</v>
+      </c>
+      <c r="C202">
+        <v>576400</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B203">
+        <v>2174500</v>
+      </c>
+      <c r="C203">
+        <v>223200</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B204">
+        <v>1908750</v>
+      </c>
+      <c r="C204">
+        <v>257600</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B205">
+        <v>1258500</v>
+      </c>
+      <c r="C205">
+        <v>2302200</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B206">
+        <v>1447000</v>
+      </c>
+      <c r="C206">
+        <v>964300</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B207">
+        <v>745000</v>
+      </c>
+      <c r="C207">
+        <v>307000</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B208">
+        <v>1215000</v>
+      </c>
+      <c r="C208">
+        <v>839250</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B209">
+        <v>1850500</v>
+      </c>
+      <c r="C209">
+        <v>1066400</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B210">
+        <v>1609100</v>
+      </c>
+      <c r="C210">
+        <v>306800</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B211">
+        <v>2004000</v>
+      </c>
+      <c r="C211">
+        <v>318400</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B212">
+        <v>1225750</v>
+      </c>
+      <c r="C212">
+        <v>2522575</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B213">
+        <v>411000</v>
+      </c>
+      <c r="C213">
+        <v>953050</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B214">
+        <v>841000</v>
+      </c>
+      <c r="C214">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B215">
+        <v>1660750</v>
+      </c>
+      <c r="C215">
+        <v>572000</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B216">
+        <v>884000</v>
+      </c>
+      <c r="C216">
+        <v>673200</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B217">
+        <v>1270000</v>
+      </c>
+      <c r="C217">
+        <v>117250</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" s="2">
+        <v>45253</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B219">
+        <v>1222000</v>
+      </c>
+      <c r="C219">
+        <v>112300</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B220">
+        <v>1755000</v>
+      </c>
+      <c r="C220">
+        <v>433075</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B221">
+        <v>645250</v>
+      </c>
+      <c r="C221">
+        <v>108500</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B222">
+        <v>2072000</v>
+      </c>
+      <c r="C222">
+        <v>322400</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B223">
+        <v>1455750</v>
+      </c>
+      <c r="C223">
+        <v>278025</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B224">
+        <v>1482250</v>
+      </c>
+      <c r="C224">
+        <v>372775</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" s="2">
+        <v>45260</v>
+      </c>
+      <c r="C225">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B226">
+        <v>879500</v>
+      </c>
+      <c r="C226">
+        <v>810600</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B227">
+        <v>1593750</v>
+      </c>
+      <c r="C227">
+        <v>383550</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B228">
+        <v>928000</v>
+      </c>
+      <c r="C228">
+        <v>1190925</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B229">
+        <v>613500</v>
+      </c>
+      <c r="C229">
+        <v>223625</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B230">
+        <v>561750</v>
+      </c>
+      <c r="C230">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B231">
+        <v>1889500</v>
+      </c>
+      <c r="C231">
+        <v>212470</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B232">
+        <v>1143850</v>
+      </c>
+      <c r="C232">
+        <v>301505</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B233">
+        <v>946500</v>
+      </c>
+      <c r="C233">
+        <v>1438115</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B234">
+        <v>2162750</v>
+      </c>
+      <c r="C234">
+        <v>317675</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B235">
+        <v>896250</v>
+      </c>
+      <c r="C235">
+        <v>1311955</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B236">
+        <v>582750</v>
+      </c>
+      <c r="C236">
+        <v>353870</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B237">
+        <v>602500</v>
+      </c>
+      <c r="C237">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B238">
+        <v>2691750</v>
+      </c>
+      <c r="C238">
+        <v>290870</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B239">
+        <v>1153250</v>
+      </c>
+      <c r="C239">
+        <v>326500</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B240">
+        <v>1403000</v>
+      </c>
+      <c r="C240">
+        <v>886730</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B241">
+        <v>1510000</v>
+      </c>
+      <c r="C241">
+        <v>1070250</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" s="2">
+        <v>45277</v>
+      </c>
+      <c r="B242">
+        <v>1413750</v>
+      </c>
+      <c r="C242">
+        <v>1530845</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" s="2">
+        <v>45278</v>
+      </c>
+      <c r="B243">
+        <v>512750</v>
+      </c>
+      <c r="C243">
+        <v>258574</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" s="2">
+        <v>45279</v>
+      </c>
+      <c r="B244">
+        <v>839500</v>
+      </c>
+      <c r="C244">
+        <v>373500</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" s="2">
+        <v>45280</v>
+      </c>
+      <c r="B245">
+        <v>1459750</v>
+      </c>
+      <c r="C245">
+        <v>373736</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" s="2">
+        <v>45281</v>
+      </c>
+      <c r="B246">
+        <v>1155000</v>
+      </c>
+      <c r="C246">
+        <v>977015</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B247">
+        <v>1315750</v>
+      </c>
+      <c r="C247">
+        <v>389601</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B248">
+        <v>764000</v>
+      </c>
+      <c r="C248">
+        <v>1241785</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" s="2">
+        <v>45284</v>
+      </c>
+      <c r="B249">
+        <v>1321750</v>
+      </c>
+      <c r="C249">
+        <v>1050180</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" s="2">
+        <v>45285</v>
+      </c>
+      <c r="B250">
+        <v>1039750</v>
+      </c>
+      <c r="C250">
+        <v>198180</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B251">
+        <v>413250</v>
+      </c>
+      <c r="C251">
+        <v>410500</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" s="2">
+        <v>45287</v>
+      </c>
+      <c r="B252">
+        <v>1394500</v>
+      </c>
+      <c r="C252">
+        <v>476050</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" s="2">
+        <v>45288</v>
+      </c>
+      <c r="B253">
+        <v>1203000</v>
+      </c>
+      <c r="C253">
+        <v>641490</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" s="2">
+        <v>45289</v>
+      </c>
+      <c r="B254">
+        <v>1112500</v>
+      </c>
+      <c r="C254">
+        <v>618800</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" s="2">
+        <v>45290</v>
+      </c>
+      <c r="B255">
+        <v>1220500</v>
+      </c>
+      <c r="C255">
+        <v>315735</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" s="2">
+        <v>45291</v>
+      </c>
+      <c r="B256">
+        <v>1051250</v>
+      </c>
+      <c r="C256">
+        <v>1713975</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" s="2">
+        <v>45292</v>
+      </c>
+      <c r="B257">
+        <v>1660000</v>
+      </c>
+      <c r="C257">
+        <v>346500</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" s="2">
+        <v>45293</v>
+      </c>
+      <c r="B258">
+        <v>1393500</v>
+      </c>
+      <c r="C258">
+        <v>584080</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" s="2">
+        <v>45294</v>
+      </c>
+      <c r="B259">
+        <v>1338750</v>
+      </c>
+      <c r="C259">
+        <v>827025</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B260">
+        <v>1754000</v>
+      </c>
+      <c r="C260">
+        <v>251505</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B261">
+        <v>705500</v>
+      </c>
+      <c r="C261">
+        <v>672875</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" s="2">
+        <v>45297</v>
+      </c>
+      <c r="B262">
+        <v>1020500</v>
+      </c>
+      <c r="C262">
+        <v>1040100</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B263">
+        <v>1264250</v>
+      </c>
+      <c r="C263">
+        <v>1464180</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B264">
+        <v>1207000</v>
+      </c>
+      <c r="C264">
+        <v>968150</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" s="2">
+        <v>45300</v>
+      </c>
+      <c r="B265">
+        <v>1296000</v>
+      </c>
+      <c r="C265">
+        <v>203500</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B266">
+        <v>1389000</v>
+      </c>
+      <c r="C266">
+        <v>357975</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B267">
+        <v>1249750</v>
+      </c>
+      <c r="C267">
+        <v>1070750</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" s="2">
+        <v>45303</v>
+      </c>
+      <c r="B268">
+        <v>1438000</v>
+      </c>
+      <c r="C268">
+        <v>927425</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B269">
+        <v>1203000</v>
+      </c>
+      <c r="C269">
+        <v>1028745</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B270">
+        <v>1305250</v>
+      </c>
+      <c r="C270">
+        <v>1715725</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B271">
+        <v>448750</v>
+      </c>
+      <c r="C271">
+        <v>404215</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" s="2">
+        <v>45307</v>
+      </c>
+      <c r="B272">
+        <v>1164750</v>
+      </c>
+      <c r="C272">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" s="2">
+        <v>45308</v>
+      </c>
+      <c r="B273">
+        <v>1284500</v>
+      </c>
+      <c r="C273">
+        <v>1493070</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B274">
+        <v>1974500</v>
+      </c>
+      <c r="C274">
+        <v>326595</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B275">
+        <v>910750</v>
+      </c>
+      <c r="C275">
+        <v>316775</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B276">
+        <v>2106500</v>
+      </c>
+      <c r="C276">
+        <v>827785</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B277">
+        <v>901000</v>
+      </c>
+      <c r="C277">
+        <v>1081575</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B278">
+        <v>574000</v>
+      </c>
+      <c r="C278">
+        <v>1756980</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B279">
+        <v>928000</v>
+      </c>
+      <c r="C279">
+        <v>213475</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" s="2">
+        <v>45315</v>
+      </c>
+      <c r="B280">
+        <v>1432250</v>
+      </c>
+      <c r="C280">
+        <v>505830</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B281">
+        <v>934250</v>
+      </c>
+      <c r="C281">
+        <v>428160</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" s="2">
+        <v>45317</v>
+      </c>
+      <c r="B282">
+        <v>1217250</v>
+      </c>
+      <c r="C282">
+        <v>505395</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B283">
+        <v>1193000</v>
+      </c>
+      <c r="C283">
+        <v>524990</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" s="2">
+        <v>45319</v>
+      </c>
+      <c r="B284">
+        <v>1128900</v>
+      </c>
+      <c r="C284">
+        <v>1207825</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" s="2">
+        <v>45320</v>
+      </c>
+      <c r="B285">
+        <v>1018750</v>
+      </c>
+      <c r="C285">
+        <v>304580</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B286">
+        <v>245750</v>
+      </c>
+      <c r="C286">
+        <v>26000</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B287">
+        <v>720500</v>
+      </c>
+      <c r="C287">
+        <v>449700</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" s="2">
+        <v>45323</v>
+      </c>
+      <c r="B288">
+        <v>958000</v>
+      </c>
+      <c r="C288">
+        <v>1373900</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B289">
+        <v>914750</v>
+      </c>
+      <c r="C289">
+        <v>778045</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" s="2">
+        <v>45325</v>
+      </c>
+      <c r="B290">
+        <v>958250</v>
+      </c>
+      <c r="C290">
+        <v>614580</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B291">
+        <v>686500</v>
+      </c>
+      <c r="C291">
+        <v>322420</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" s="2">
+        <v>45327</v>
+      </c>
+      <c r="B292">
+        <v>508000</v>
+      </c>
+      <c r="C292">
+        <v>386225</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B293">
+        <v>604250</v>
+      </c>
+      <c r="C293">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" s="2">
+        <v>45329</v>
+      </c>
+      <c r="B294">
+        <v>1793000</v>
+      </c>
+      <c r="C294">
+        <v>739500</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" s="2">
+        <v>45330</v>
+      </c>
+      <c r="B295">
+        <v>843500</v>
+      </c>
+      <c r="C295">
+        <v>357265</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" s="2">
+        <v>45331</v>
+      </c>
+      <c r="B296">
+        <v>722000</v>
+      </c>
+      <c r="C296">
+        <v>1426790</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" s="2">
+        <v>45332</v>
+      </c>
+      <c r="B297">
+        <v>1112500</v>
+      </c>
+      <c r="C297">
+        <v>750135</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" s="2">
+        <v>45333</v>
+      </c>
+      <c r="B298">
+        <v>1193500</v>
+      </c>
+      <c r="C298">
+        <v>703130</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" s="2">
+        <v>45334</v>
+      </c>
+      <c r="B299">
+        <v>456000</v>
+      </c>
+      <c r="C299">
+        <v>2378255</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" s="2">
+        <v>45335</v>
+      </c>
+      <c r="B300">
+        <v>581250</v>
+      </c>
+      <c r="C300">
+        <v>267400</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" s="2">
+        <v>45336</v>
+      </c>
+      <c r="B301">
+        <v>1318000</v>
+      </c>
+      <c r="C301">
+        <v>1117795</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B302">
+        <v>981500</v>
+      </c>
+      <c r="C302">
+        <v>250815</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B303">
+        <v>1259000</v>
+      </c>
+      <c r="C303">
+        <v>241450</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" s="2">
+        <v>45339</v>
+      </c>
+      <c r="B304">
+        <v>1840250</v>
+      </c>
+      <c r="C304">
+        <v>1065950</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B305">
+        <v>1064000</v>
+      </c>
+      <c r="C305">
+        <v>850100</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" s="2">
+        <v>45341</v>
+      </c>
+      <c r="B306">
+        <v>809500</v>
+      </c>
+      <c r="C306">
+        <v>445710</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" s="2">
+        <v>45342</v>
+      </c>
+      <c r="B307">
+        <v>980500</v>
+      </c>
+      <c r="C307">
+        <v>1530700</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" s="2">
+        <v>45343</v>
+      </c>
+      <c r="B308">
+        <v>1119750</v>
+      </c>
+      <c r="C308">
+        <v>733405</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" s="2">
+        <v>45344</v>
+      </c>
+      <c r="B309">
+        <v>775000</v>
+      </c>
+      <c r="C309">
+        <v>349500</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B310">
+        <v>1189250</v>
+      </c>
+      <c r="C310">
+        <v>961875</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" s="2">
+        <v>45346</v>
+      </c>
+      <c r="B311">
+        <v>1032500</v>
+      </c>
+      <c r="C311">
+        <v>570100</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" s="2">
+        <v>45347</v>
+      </c>
+      <c r="B312">
+        <v>1015000</v>
+      </c>
+      <c r="C312">
+        <v>343880</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" s="2">
+        <v>45348</v>
+      </c>
+      <c r="B313">
+        <v>686500</v>
+      </c>
+      <c r="C313">
+        <v>329265</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" s="2">
+        <v>45349</v>
+      </c>
+      <c r="B314">
+        <v>714000</v>
+      </c>
+      <c r="C314">
+        <v>142000</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" s="2">
+        <v>45350</v>
+      </c>
+      <c r="B315">
+        <v>1042500</v>
+      </c>
+      <c r="C315">
+        <v>203580</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" s="2">
+        <v>45351</v>
+      </c>
+      <c r="B316">
+        <v>852750</v>
+      </c>
+      <c r="C316">
+        <v>628540</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" s="2">
+        <v>45352</v>
+      </c>
+      <c r="B317">
+        <v>1154500</v>
+      </c>
+      <c r="C317">
+        <v>643075</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" s="2">
+        <v>45353</v>
+      </c>
+      <c r="B318">
+        <v>1759250</v>
+      </c>
+      <c r="C318">
+        <v>285320</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" s="2">
+        <v>45354</v>
+      </c>
+      <c r="B319">
+        <v>1091500</v>
+      </c>
+      <c r="C319">
+        <v>964040</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" s="2">
+        <v>45355</v>
+      </c>
+      <c r="B320">
+        <v>393500</v>
+      </c>
+      <c r="C320">
+        <v>406185</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" s="2">
+        <v>45356</v>
+      </c>
+      <c r="B321">
+        <v>973000</v>
+      </c>
+      <c r="C321">
+        <v>1129900</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" s="2">
+        <v>45357</v>
+      </c>
+      <c r="B322">
+        <v>1083000</v>
+      </c>
+      <c r="C322">
+        <v>1024905</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" s="2">
+        <v>45358</v>
+      </c>
+      <c r="B323">
+        <v>1036150</v>
+      </c>
+      <c r="C323">
+        <v>2159040</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" s="2">
+        <v>45359</v>
+      </c>
+      <c r="B324">
+        <v>733000</v>
+      </c>
+      <c r="C324">
+        <v>417155</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" s="2">
+        <v>45360</v>
+      </c>
+      <c r="B325">
+        <v>921500</v>
+      </c>
+      <c r="C325">
+        <v>444525</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" s="2">
+        <v>45361</v>
+      </c>
+      <c r="B326">
+        <v>999500</v>
+      </c>
+      <c r="C326">
+        <v>824200</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" s="2">
+        <v>45362</v>
+      </c>
+      <c r="B327">
+        <v>424500</v>
+      </c>
+      <c r="C327">
+        <v>595265</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" s="2">
+        <v>45363</v>
+      </c>
+      <c r="B328">
+        <v>936500</v>
+      </c>
+      <c r="C328">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" s="2">
+        <v>45364</v>
+      </c>
+      <c r="B329">
+        <v>1141750</v>
+      </c>
+      <c r="C329">
+        <v>598095</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" s="2">
+        <v>45365</v>
+      </c>
+      <c r="B330">
+        <v>366650</v>
+      </c>
+      <c r="C330">
+        <v>395125</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" s="2">
+        <v>45366</v>
+      </c>
+      <c r="B331">
+        <v>754150</v>
+      </c>
+      <c r="C331">
+        <v>230120</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" s="2">
+        <v>45367</v>
+      </c>
+      <c r="B332">
+        <v>848600</v>
+      </c>
+      <c r="C332">
+        <v>500260</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" s="2">
+        <v>45368</v>
+      </c>
+      <c r="B333">
+        <v>825300</v>
+      </c>
+      <c r="C333">
+        <v>185030</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" s="2">
+        <v>45369</v>
+      </c>
+      <c r="B334">
+        <v>613100</v>
+      </c>
+      <c r="C334">
+        <v>237850</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" s="2">
+        <v>45370</v>
+      </c>
+      <c r="B335">
+        <v>645250</v>
+      </c>
+      <c r="C335">
+        <v>2114200</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" s="2">
+        <v>45371</v>
+      </c>
+      <c r="B336">
+        <v>1307250</v>
+      </c>
+      <c r="C336">
+        <v>277300</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" s="2">
+        <v>45372</v>
+      </c>
+      <c r="B337">
+        <v>633500</v>
+      </c>
+      <c r="C337">
+        <v>295220</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" s="2">
+        <v>45373</v>
+      </c>
+      <c r="B338">
+        <v>1504150</v>
+      </c>
+      <c r="C338">
+        <v>749680</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" s="2">
+        <v>45374</v>
+      </c>
+      <c r="B339">
+        <v>758550</v>
+      </c>
+      <c r="C339">
+        <v>476750</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" s="2">
+        <v>45375</v>
+      </c>
+      <c r="B340">
+        <v>931400</v>
+      </c>
+      <c r="C340">
+        <v>298235</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" s="2">
+        <v>45376</v>
+      </c>
+      <c r="B341">
+        <v>276500</v>
+      </c>
+      <c r="C341">
+        <v>290465</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" s="2">
+        <v>45377</v>
+      </c>
+      <c r="B342">
+        <v>430000</v>
+      </c>
+      <c r="C342">
+        <v>101000</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" s="2">
+        <v>45378</v>
+      </c>
+      <c r="B343">
+        <v>985100</v>
+      </c>
+      <c r="C343">
+        <v>336200</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" s="2">
+        <v>45379</v>
+      </c>
+      <c r="B344">
+        <v>991800</v>
+      </c>
+      <c r="C344">
+        <v>138900</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" s="2">
+        <v>45380</v>
+      </c>
+      <c r="B345">
+        <v>1039850</v>
+      </c>
+      <c r="C345">
+        <v>174350</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" s="2">
+        <v>45381</v>
+      </c>
+      <c r="B346">
+        <v>658500</v>
+      </c>
+      <c r="C346">
+        <v>602200</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" s="2">
+        <v>45382</v>
+      </c>
+      <c r="B347">
+        <v>903200</v>
+      </c>
+      <c r="C347">
+        <v>417000</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="2">
+        <v>45383</v>
+      </c>
+      <c r="B348">
+        <v>359500</v>
+      </c>
+      <c r="C348">
+        <v>151155</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3">
+      <c r="A349" s="2">
+        <v>45384</v>
+      </c>
+      <c r="B349">
+        <v>467500</v>
+      </c>
+      <c r="C349">
+        <v>978500</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3">
+      <c r="A350" s="2">
+        <v>45385</v>
+      </c>
+      <c r="B350">
+        <v>700500</v>
+      </c>
+      <c r="C350">
+        <v>381200</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3">
+      <c r="A351" s="2">
+        <v>45386</v>
+      </c>
+      <c r="B351">
+        <v>774400</v>
+      </c>
+      <c r="C351">
+        <v>615000</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3">
+      <c r="A352" s="2">
+        <v>45387</v>
+      </c>
+      <c r="B352">
+        <v>909950</v>
+      </c>
+      <c r="C352">
+        <v>570040</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3">
+      <c r="A353" s="2">
+        <v>45388</v>
+      </c>
+      <c r="B353">
+        <v>727950</v>
+      </c>
+      <c r="C353">
+        <v>238655</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3">
+      <c r="A354" s="2">
+        <v>45389</v>
+      </c>
+      <c r="B354">
+        <v>825650</v>
+      </c>
+      <c r="C354">
+        <v>463025</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3">
+      <c r="A355" s="2">
+        <v>45390</v>
+      </c>
+      <c r="B355">
+        <v>363000</v>
+      </c>
+      <c r="C355">
+        <v>840550</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3">
+      <c r="A356" s="2">
+        <v>45391</v>
+      </c>
+      <c r="B356">
+        <v>908000</v>
+      </c>
+      <c r="C356">
+        <v>19500</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3">
+      <c r="A357" s="2">
+        <v>45392</v>
+      </c>
+      <c r="B357">
+        <v>517500</v>
+      </c>
+      <c r="C357">
+        <v>187300</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3">
+      <c r="A358" s="2">
+        <v>45393</v>
+      </c>
+      <c r="B358">
+        <v>481000</v>
+      </c>
+      <c r="C358">
+        <v>270580</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3">
+      <c r="A359" s="2">
+        <v>45394</v>
+      </c>
+      <c r="B359">
+        <v>815150</v>
+      </c>
+      <c r="C359">
+        <v>314030</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3">
+      <c r="A360" s="2">
+        <v>45395</v>
+      </c>
+      <c r="B360">
+        <v>960600</v>
+      </c>
+      <c r="C360">
+        <v>211125</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3">
+      <c r="A361" s="2">
+        <v>45396</v>
+      </c>
+      <c r="B361">
+        <v>820750</v>
+      </c>
+      <c r="C361">
+        <v>252500</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3">
+      <c r="A362" s="2">
+        <v>45397</v>
+      </c>
+      <c r="B362">
+        <v>367750</v>
+      </c>
+      <c r="C362">
+        <v>526820</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3">
+      <c r="A363" s="2">
+        <v>45398</v>
+      </c>
+      <c r="B363">
+        <v>684500</v>
+      </c>
+      <c r="C363">
+        <v>1261200</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3">
+      <c r="A364" s="2">
+        <v>45399</v>
+      </c>
+      <c r="B364">
+        <v>933500</v>
+      </c>
+      <c r="C364">
+        <v>295780</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3">
+      <c r="A365" s="2">
+        <v>45400</v>
+      </c>
+      <c r="B365">
+        <v>940000</v>
+      </c>
+      <c r="C365">
+        <v>256725</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3">
+      <c r="A366" s="2">
+        <v>45401</v>
+      </c>
+      <c r="B366">
+        <v>1327750</v>
+      </c>
+      <c r="C366">
+        <v>695330</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3">
+      <c r="A367" s="2">
+        <v>45402</v>
+      </c>
+      <c r="B367">
+        <v>577500</v>
+      </c>
+      <c r="C367">
+        <v>183050</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3">
+      <c r="A368" s="2">
+        <v>45403</v>
+      </c>
+      <c r="B368">
+        <v>638000</v>
+      </c>
+      <c r="C368">
+        <v>609975</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3">
+      <c r="A369" s="2">
+        <v>45404</v>
+      </c>
+      <c r="B369">
+        <v>176000</v>
+      </c>
+      <c r="C369">
+        <v>275015</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3">
+      <c r="A370" s="2">
+        <v>45405</v>
+      </c>
+      <c r="B370">
+        <v>447000</v>
+      </c>
+      <c r="C370">
+        <v>105100</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3">
+      <c r="A371" s="2">
+        <v>45406</v>
+      </c>
+      <c r="B371">
+        <v>1583750</v>
+      </c>
+      <c r="C371">
+        <v>243225</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3">
+      <c r="A372" s="2">
+        <v>45407</v>
+      </c>
+      <c r="B372">
+        <v>1096250</v>
+      </c>
+      <c r="C372">
+        <v>99100</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3">
+      <c r="A373" s="2">
+        <v>45408</v>
+      </c>
+      <c r="B373">
+        <v>891050</v>
+      </c>
+      <c r="C373">
+        <v>1154620</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3">
+      <c r="A374" s="2">
+        <v>45409</v>
+      </c>
+      <c r="B374">
+        <v>470500</v>
+      </c>
+      <c r="C374">
+        <v>352885</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3">
+      <c r="A375" s="2">
+        <v>45410</v>
+      </c>
+      <c r="B375">
+        <v>713750</v>
+      </c>
+      <c r="C375">
+        <v>396750</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3">
+      <c r="A376" s="2">
+        <v>45411</v>
+      </c>
+      <c r="B376">
+        <v>597500</v>
+      </c>
+      <c r="C376">
+        <v>188440</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3">
+      <c r="A377" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B377">
+        <v>534500</v>
+      </c>
+      <c r="C377">
+        <v>1051900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
